--- a/data/base/xBRL_GL_binding.xlsx
+++ b/data/base/xBRL_GL_binding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\GitHub\Japan_core\data\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/Japan_core/data/base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D422752-05D2-4292-BBA3-A16E4A800CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F959A90-516E-5C42-9990-8F58752CCC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="960" windowWidth="23865" windowHeight="14280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="960" windowWidth="23860" windowHeight="14280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adcs GL" sheetId="5" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8407" uniqueCount="3582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8407" uniqueCount="3583">
   <si>
     <t>entries</t>
   </si>
@@ -10837,6 +10837,10 @@
   </si>
   <si>
     <t>XBRL GL</t>
+  </si>
+  <si>
+    <t>GL69-02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10844,29 +10848,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="00"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="游ゴシック Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -10874,14 +10878,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -10896,8 +10900,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -10957,7 +10968,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11037,7 +11048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11046,16 +11057,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -11082,7 +11093,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -11129,124 +11140,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="3" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="桁区切り [0.00]" xfId="3" builtinId="3"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2" xr:uid="{EA35A6C4-D566-46C3-8A53-55660A45E06F}"/>
   </cellStyles>
   <dxfs count="141">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -11949,6 +11848,118 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCCFFFF"/>
         </patternFill>
       </fill>
@@ -12147,7 +12158,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12455,16 +12466,16 @@
       <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="25" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="11" width="16.5703125" customWidth="1"/>
+    <col min="8" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -14914,6 +14925,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K79" xr:uid="{66688DA9-C97B-4A57-8186-455691B62EFC}"/>
+  <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="A1:K1048576">
     <cfRule type="expression" dxfId="140" priority="16">
       <formula>"G"=MID($B1,6,1)</formula>
@@ -15013,11 +15025,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEA786B-FF13-46EE-AEE9-64FD8E05A2F9}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="19" t="s">
@@ -16246,59 +16258,60 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="C2:D28">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="114" priority="13">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="113" priority="14">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="112" priority="15">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="111" priority="16">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G28">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="110" priority="9">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="109" priority="10">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="108" priority="11">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="107" priority="12">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:G28">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="106" priority="5">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="105" priority="6">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="104" priority="7">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="103" priority="8">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N28">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="102" priority="1">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="101" priority="2">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="100" priority="3">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="99" priority="4">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16316,26 +16329,26 @@
       <selection pane="bottomLeft" activeCell="N68" sqref="A1:N68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="9" width="14.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -20108,59 +20121,60 @@
       </customFilters>
     </filterColumn>
   </autoFilter>
+  <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="C2:D64 P2:R73">
-    <cfRule type="expression" dxfId="114" priority="13">
+    <cfRule type="expression" dxfId="98" priority="13">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="14">
+    <cfRule type="expression" dxfId="97" priority="14">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="15">
+    <cfRule type="expression" dxfId="96" priority="15">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="16">
+    <cfRule type="expression" dxfId="95" priority="16">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G64">
-    <cfRule type="expression" dxfId="110" priority="9">
+    <cfRule type="expression" dxfId="94" priority="9">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="10">
+    <cfRule type="expression" dxfId="93" priority="10">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="11">
+    <cfRule type="expression" dxfId="92" priority="11">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="12">
+    <cfRule type="expression" dxfId="91" priority="12">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:G64">
-    <cfRule type="expression" dxfId="106" priority="5">
+    <cfRule type="expression" dxfId="90" priority="5">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="6">
+    <cfRule type="expression" dxfId="89" priority="6">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="7">
+    <cfRule type="expression" dxfId="88" priority="7">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="8">
+    <cfRule type="expression" dxfId="87" priority="8">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N64">
-    <cfRule type="expression" dxfId="102" priority="1">
+    <cfRule type="expression" dxfId="86" priority="1">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="2">
+    <cfRule type="expression" dxfId="85" priority="2">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="3">
+    <cfRule type="expression" dxfId="84" priority="3">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="4">
+    <cfRule type="expression" dxfId="83" priority="4">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20178,26 +20192,26 @@
       <selection pane="bottomLeft" activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="40.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="29.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="40.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="6" style="35" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -23883,59 +23897,60 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q68" xr:uid="{488FC503-D7A0-4C08-966A-339B8ED61CA2}"/>
+  <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="D2:F2 D3:E64 F3:F73">
-    <cfRule type="expression" dxfId="98" priority="13">
+    <cfRule type="expression" dxfId="82" priority="13">
       <formula>"PKBIE"=MID($G2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="14">
+    <cfRule type="expression" dxfId="81" priority="14">
       <formula>"RFBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="15">
+    <cfRule type="expression" dxfId="80" priority="15">
       <formula>"ASBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="16">
+    <cfRule type="expression" dxfId="79" priority="16">
       <formula>"ABIE"=$G2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P64">
-    <cfRule type="expression" dxfId="94" priority="9">
+    <cfRule type="expression" dxfId="78" priority="9">
       <formula>"PKBIE"=MID($G2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="10">
+    <cfRule type="expression" dxfId="77" priority="10">
       <formula>"RFBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="11">
+    <cfRule type="expression" dxfId="76" priority="11">
       <formula>"ASBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="12">
+    <cfRule type="expression" dxfId="75" priority="12">
       <formula>"ABIE"=$G2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G64">
-    <cfRule type="expression" dxfId="90" priority="5">
+    <cfRule type="expression" dxfId="74" priority="5">
       <formula>"PKBIE"=MID($G2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="6">
+    <cfRule type="expression" dxfId="73" priority="6">
       <formula>"RFBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="7">
+    <cfRule type="expression" dxfId="72" priority="7">
       <formula>"ASBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="8">
+    <cfRule type="expression" dxfId="71" priority="8">
       <formula>"ABIE"=$G2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O64">
-    <cfRule type="expression" dxfId="86" priority="1">
+    <cfRule type="expression" dxfId="70" priority="1">
       <formula>"PKBIE"=MID($G2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="2">
+    <cfRule type="expression" dxfId="69" priority="2">
       <formula>"RFBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="3">
+    <cfRule type="expression" dxfId="68" priority="3">
       <formula>"ASBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="4">
+    <cfRule type="expression" dxfId="67" priority="4">
       <formula>"ABIE"=$G2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23951,34 +23966,34 @@
   </sheetPr>
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="4" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="47" customWidth="1"/>
-    <col min="8" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="47" customWidth="1"/>
+    <col min="8" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" style="20" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="25" customWidth="1"/>
-    <col min="16" max="20" width="16.5703125" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="20" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="25" customWidth="1"/>
+    <col min="16" max="20" width="16.5" customWidth="1"/>
+    <col min="21" max="21" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -24435,7 +24450,7 @@
         <v>1230</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>2967</v>
+        <v>3582</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="2">
@@ -28147,109 +28162,109 @@
   <autoFilter ref="J1:X86" xr:uid="{66688DA9-C97B-4A57-8186-455691B62EFC}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J1:U1048576">
-    <cfRule type="expression" dxfId="82" priority="26">
+    <cfRule type="expression" dxfId="66" priority="26">
       <formula>"G"=MID($K1,6,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53">
-    <cfRule type="expression" dxfId="81" priority="11">
+    <cfRule type="expression" dxfId="65" priority="11">
       <formula>"isa"=$O52</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="12">
+    <cfRule type="expression" dxfId="64" priority="12">
       <formula>OR("ASBIE"=MID($J52,1,5),"ASCC"=MID($J52,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="13">
+    <cfRule type="expression" dxfId="63" priority="13">
       <formula>OR("RFBIE"=MID($J52,1,5),"RFCC"=MID($J52,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="14">
+    <cfRule type="expression" dxfId="62" priority="14">
       <formula>OR("ABIE"=MID($J52,1,4),"ACC"=MID($J52,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="15">
+    <cfRule type="expression" dxfId="61" priority="15">
       <formula>OR("PKBIE"=MID($J52,1,5),"PKCC"=MID($J52,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:O56">
-    <cfRule type="expression" dxfId="76" priority="16">
+    <cfRule type="expression" dxfId="60" priority="16">
       <formula>"isa"=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="17">
+    <cfRule type="expression" dxfId="59" priority="17">
       <formula>OR("ASBIE"=MID(#REF!,1,5),"ASCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="18">
+    <cfRule type="expression" dxfId="58" priority="18">
       <formula>OR("RFBIE"=MID(#REF!,1,5),"RFCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="19">
+    <cfRule type="expression" dxfId="57" priority="19">
       <formula>OR("ABIE"=MID(#REF!,1,4),"ACC"=MID(#REF!,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="20">
+    <cfRule type="expression" dxfId="56" priority="20">
       <formula>OR("PKBIE"=MID(#REF!,1,5),"PKCC"=MID(#REF!,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54 P54:Q54 M54">
-    <cfRule type="expression" dxfId="71" priority="123">
+    <cfRule type="expression" dxfId="55" priority="123">
       <formula>"isa"=$M54</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="124">
+    <cfRule type="expression" dxfId="54" priority="124">
       <formula>OR("ASBIE"=MID($J55,1,5),"ASCC"=MID($J55,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="125">
+    <cfRule type="expression" dxfId="53" priority="125">
       <formula>OR("RFBIE"=MID($J55,1,5),"RFCC"=MID($J55,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="126">
+    <cfRule type="expression" dxfId="52" priority="126">
       <formula>OR("ABIE"=MID($J55,1,4),"ACC"=MID($J55,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="127">
+    <cfRule type="expression" dxfId="51" priority="127">
       <formula>OR("PKBIE"=MID($J55,1,5),"PKCC"=MID($J55,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R53:S53">
-    <cfRule type="expression" dxfId="66" priority="6">
+    <cfRule type="expression" dxfId="50" priority="6">
       <formula>"isa"=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="7">
+    <cfRule type="expression" dxfId="49" priority="7">
       <formula>OR("ASBIE"=MID(#REF!,1,5),"ASCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="8">
+    <cfRule type="expression" dxfId="48" priority="8">
       <formula>OR("RFBIE"=MID(#REF!,1,5),"RFCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="9">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>OR("ABIE"=MID(#REF!,1,4),"ACC"=MID(#REF!,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="10">
+    <cfRule type="expression" dxfId="46" priority="10">
       <formula>OR("PKBIE"=MID(#REF!,1,5),"PKCC"=MID(#REF!,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S55:S56 P55:Q56 M55:M56">
-    <cfRule type="expression" dxfId="61" priority="136">
+    <cfRule type="expression" dxfId="45" priority="136">
       <formula>"isa"=$M55</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="137">
+    <cfRule type="expression" dxfId="44" priority="137">
       <formula>OR("ASBIE"=MID(#REF!,1,5),"ASCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="138">
+    <cfRule type="expression" dxfId="43" priority="138">
       <formula>OR("RFBIE"=MID(#REF!,1,5),"RFCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="139">
+    <cfRule type="expression" dxfId="42" priority="139">
       <formula>OR("ABIE"=MID(#REF!,1,4),"ACC"=MID(#REF!,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="140">
+    <cfRule type="expression" dxfId="41" priority="140">
       <formula>OR("PKBIE"=MID(#REF!,1,5),"PKCC"=MID(#REF!,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S77">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="40" priority="1">
       <formula>"isa"=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>OR("ASBIE"=MID(#REF!,1,5),"ASCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="3">
+    <cfRule type="expression" dxfId="38" priority="3">
       <formula>OR("RFBIE"=MID(#REF!,1,5),"RFCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>OR("ABIE"=MID(#REF!,1,4),"ACC"=MID(#REF!,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="5">
+    <cfRule type="expression" dxfId="36" priority="5">
       <formula>OR("PKBIE"=MID(#REF!,1,5),"PKCC"=MID(#REF!,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28266,23 +28281,23 @@
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="100.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.42578125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.42578125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="100.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.5" style="35" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.5" style="35" customWidth="1"/>
     <col min="11" max="11" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="15" width="17.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="3.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="26.85546875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="15" width="17.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" style="1"/>
+    <col min="17" max="17" width="3.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.83203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -32195,109 +32210,109 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q10:S10 H1:S9 H10:O10 E1:F63 H11:S63">
-    <cfRule type="expression" dxfId="51" priority="38">
+    <cfRule type="expression" dxfId="35" priority="38">
       <formula>"PKBIE"=MID($G1,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="39">
+    <cfRule type="expression" dxfId="34" priority="39">
       <formula>"RFBIE"=$G1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="40">
+    <cfRule type="expression" dxfId="33" priority="40">
       <formula>"ASBIE"=$G1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="41">
+    <cfRule type="expression" dxfId="32" priority="41">
       <formula>"ABIE"=$G1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65:F67">
-    <cfRule type="expression" dxfId="47" priority="14">
+    <cfRule type="expression" dxfId="31" priority="14">
       <formula>"PKBIE"=MID($G65,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="15">
+    <cfRule type="expression" dxfId="30" priority="15">
       <formula>"RFBIE"=$G65</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="16">
+    <cfRule type="expression" dxfId="29" priority="16">
       <formula>"ASBIE"=$G65</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="17">
+    <cfRule type="expression" dxfId="28" priority="17">
       <formula>"ABIE"=$G65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:F72">
-    <cfRule type="expression" dxfId="43" priority="10">
+    <cfRule type="expression" dxfId="27" priority="10">
       <formula>"PKBIE"=MID($G69,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="11">
+    <cfRule type="expression" dxfId="26" priority="11">
       <formula>"RFBIE"=$G69</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="12">
+    <cfRule type="expression" dxfId="25" priority="12">
       <formula>"ASBIE"=$G69</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="13">
+    <cfRule type="expression" dxfId="24" priority="13">
       <formula>"ABIE"=$G69</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:F78">
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>"PKBIE"=MID($G74,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>"RFBIE"=$G74</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>"ASBIE"=$G74</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="9">
+    <cfRule type="expression" dxfId="20" priority="9">
       <formula>"ABIE"=$G74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73 L73">
-    <cfRule type="expression" dxfId="35" priority="88">
+    <cfRule type="expression" dxfId="19" priority="88">
       <formula>"isa"=$E67</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="89">
+    <cfRule type="expression" dxfId="18" priority="89">
       <formula>OR("ASBIE"=MID($A67,1,5),"ASCC"=MID($A67,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="90">
+    <cfRule type="expression" dxfId="17" priority="90">
       <formula>OR("RFBIE"=MID($A67,1,5),"RFCC"=MID($A67,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="91">
+    <cfRule type="expression" dxfId="16" priority="91">
       <formula>OR("ABIE"=MID($A67,1,4),"ACC"=MID($A67,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="92">
+    <cfRule type="expression" dxfId="15" priority="92">
       <formula>OR("PKBIE"=MID($A67,1,5),"PKCC"=MID($A67,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74:K78">
-    <cfRule type="expression" dxfId="30" priority="93">
+    <cfRule type="expression" dxfId="14" priority="93">
       <formula>"isa"=$E69</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="94">
+    <cfRule type="expression" dxfId="13" priority="94">
       <formula>OR("ASBIE"=MID($A69,1,5),"ASCC"=MID($A69,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="95">
+    <cfRule type="expression" dxfId="12" priority="95">
       <formula>OR("RFBIE"=MID($A69,1,5),"RFCC"=MID($A69,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="96">
+    <cfRule type="expression" dxfId="11" priority="96">
       <formula>OR("ABIE"=MID($A69,1,4),"ACC"=MID($A69,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="97">
+    <cfRule type="expression" dxfId="10" priority="97">
       <formula>OR("PKBIE"=MID($A69,1,5),"PKCC"=MID($A69,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O74:O78 L74:M78 J74:J78 H74:H78">
-    <cfRule type="expression" dxfId="25" priority="98">
+    <cfRule type="expression" dxfId="9" priority="98">
       <formula>"isa"=$E74</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="99">
+    <cfRule type="expression" dxfId="8" priority="99">
       <formula>OR("ASBIE"=MID($A75,1,5),"ASCC"=MID($A75,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="100">
+    <cfRule type="expression" dxfId="7" priority="100">
       <formula>OR("RFBIE"=MID($A75,1,5),"RFCC"=MID($A75,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="101">
+    <cfRule type="expression" dxfId="6" priority="101">
       <formula>OR("ABIE"=MID($A75,1,4),"ACC"=MID($A75,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="102">
+    <cfRule type="expression" dxfId="5" priority="102">
       <formula>OR("PKBIE"=MID($A75,1,5),"PKCC"=MID($A75,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32318,25 +32333,25 @@
       <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.28515625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="56" customWidth="1"/>
-    <col min="10" max="16" width="5.42578125" style="56" customWidth="1"/>
-    <col min="17" max="17" width="60.28515625" style="56" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.33203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="56" customWidth="1"/>
+    <col min="10" max="16" width="5.5" style="56" customWidth="1"/>
+    <col min="17" max="17" width="60.33203125" style="56" customWidth="1"/>
     <col min="18" max="18" width="7" style="4" customWidth="1"/>
-    <col min="19" max="19" width="39.28515625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="39.28515625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="31.28515625" style="5" customWidth="1"/>
-    <col min="22" max="23" width="23.140625" style="5" customWidth="1"/>
-    <col min="24" max="16384" width="12.28515625" style="5"/>
+    <col min="19" max="19" width="39.33203125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="39.33203125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="31.33203125" style="5" customWidth="1"/>
+    <col min="22" max="23" width="23.1640625" style="5" customWidth="1"/>
+    <col min="24" max="16384" width="12.33203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1">
@@ -60685,22 +60700,23 @@
       <sortCondition ref="A1:A449"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="B25:G25 B450:G1048576 B1:G3 B4:F24 B26:F186 B187:G187 B188:F449">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="cen">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="cen">
       <formula>NOT(ISERROR(SEARCH("cen",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",F1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/base/xBRL_GL_binding.xlsx
+++ b/data/base/xBRL_GL_binding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/Japan_core/data/base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\GitHub\Japan_core\data\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F959A90-516E-5C42-9990-8F58752CCC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB87E9-B857-40DC-8DAA-E5C3FA09E901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="960" windowWidth="23860" windowHeight="14280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="570" windowWidth="23865" windowHeight="14280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adcs GL" sheetId="5" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8407" uniqueCount="3583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8407" uniqueCount="3582">
   <si>
     <t>entries</t>
   </si>
@@ -10837,10 +10837,6 @@
   </si>
   <si>
     <t>XBRL GL</t>
-  </si>
-  <si>
-    <t>GL69-02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10848,29 +10844,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="00"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -10878,14 +10874,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -10900,13 +10896,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -10968,7 +10964,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11048,7 +11044,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11057,16 +11053,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -11093,7 +11089,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -11140,9 +11136,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="桁区切り [0.00]" xfId="3" builtinId="3"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2" xr:uid="{EA35A6C4-D566-46C3-8A53-55660A45E06F}"/>
   </cellStyles>
   <dxfs count="141">
@@ -12158,7 +12154,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12460,22 +12456,22 @@
   <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="25" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="11" width="16.5" customWidth="1"/>
+    <col min="8" max="11" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -15029,7 +15025,7 @@
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="19" t="s">
@@ -16329,26 +16325,26 @@
       <selection pane="bottomLeft" activeCell="N68" sqref="A1:N68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -20192,26 +20188,26 @@
       <selection pane="bottomLeft" activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="29.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="40.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="40.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="6" style="35" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1640625" style="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -23970,30 +23966,30 @@
       <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="25" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="47" customWidth="1"/>
-    <col min="8" max="9" width="15.83203125" customWidth="1"/>
-    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="47" customWidth="1"/>
+    <col min="8" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" style="20" customWidth="1"/>
-    <col min="15" max="15" width="16.5" style="25" customWidth="1"/>
-    <col min="16" max="20" width="16.5" customWidth="1"/>
-    <col min="21" max="21" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" style="20" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="25" customWidth="1"/>
+    <col min="16" max="20" width="16.42578125" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -24450,7 +24446,7 @@
         <v>1230</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>3582</v>
+        <v>2967</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="2">
@@ -28277,27 +28273,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S90"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView topLeftCell="B25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="100.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.5" style="35" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.5" style="35" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="100.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.42578125" style="35" customWidth="1"/>
     <col min="11" max="11" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="15" width="17.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="1"/>
-    <col min="17" max="17" width="3.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="26.83203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="1"/>
+    <col min="14" max="15" width="17.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="3.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.85546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -32323,35 +32319,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9FD28C-C714-41D6-B590-946E1597CB39}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W449"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomLeft" activeCell="Q184" sqref="Q184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.33203125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="56" customWidth="1"/>
-    <col min="10" max="16" width="5.5" style="56" customWidth="1"/>
-    <col min="17" max="17" width="60.33203125" style="56" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="56" customWidth="1"/>
+    <col min="10" max="16" width="5.42578125" style="56" customWidth="1"/>
+    <col min="17" max="17" width="60.28515625" style="56" customWidth="1"/>
     <col min="18" max="18" width="7" style="4" customWidth="1"/>
-    <col min="19" max="19" width="39.33203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="39.33203125" style="5" customWidth="1"/>
-    <col min="21" max="21" width="31.33203125" style="5" customWidth="1"/>
-    <col min="22" max="23" width="23.1640625" style="5" customWidth="1"/>
-    <col min="24" max="16384" width="12.33203125" style="5"/>
+    <col min="19" max="19" width="39.28515625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="39.28515625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="31.28515625" style="5" customWidth="1"/>
+    <col min="22" max="23" width="23.140625" style="5" customWidth="1"/>
+    <col min="24" max="16384" width="12.28515625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1">
@@ -32417,7 +32413,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" hidden="1">
       <c r="A2" s="5">
         <v>1000</v>
       </c>
@@ -32478,7 +32474,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" hidden="1">
       <c r="A3" s="5">
         <v>1010</v>
       </c>
@@ -32542,7 +32538,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" hidden="1">
       <c r="A4" s="5">
         <v>1020</v>
       </c>
@@ -32606,7 +32602,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" hidden="1">
       <c r="A5" s="5">
         <v>1030</v>
       </c>
@@ -32670,7 +32666,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" hidden="1">
       <c r="A6" s="5">
         <v>1040</v>
       </c>
@@ -32734,7 +32730,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" hidden="1">
       <c r="A7" s="5">
         <v>1050</v>
       </c>
@@ -32798,7 +32794,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" s="5">
         <v>1060</v>
       </c>
@@ -32926,7 +32922,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" hidden="1">
       <c r="A10" s="5">
         <v>1080</v>
       </c>
@@ -32986,7 +32982,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="5">
         <v>1090</v>
       </c>
@@ -33050,7 +33046,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" s="5">
         <v>1100</v>
       </c>
@@ -33114,7 +33110,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" hidden="1">
       <c r="A13" s="5">
         <v>1110</v>
       </c>
@@ -33178,7 +33174,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" hidden="1">
       <c r="A14" s="5">
         <v>1120</v>
       </c>
@@ -33238,7 +33234,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" hidden="1">
       <c r="A15" s="5">
         <v>1130</v>
       </c>
@@ -33298,7 +33294,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" hidden="1">
       <c r="A16" s="5">
         <v>1140</v>
       </c>
@@ -33358,7 +33354,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" hidden="1">
       <c r="A17" s="5">
         <v>1150</v>
       </c>
@@ -33418,7 +33414,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" hidden="1">
       <c r="A18" s="5">
         <v>1160</v>
       </c>
@@ -33478,7 +33474,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" hidden="1">
       <c r="A19" s="5">
         <v>1170</v>
       </c>
@@ -33538,7 +33534,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" hidden="1">
       <c r="A20" s="5">
         <v>1180</v>
       </c>
@@ -33598,7 +33594,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" hidden="1">
       <c r="A21" s="5">
         <v>1230</v>
       </c>
@@ -33662,7 +33658,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" hidden="1">
       <c r="A22" s="5">
         <v>1240</v>
       </c>
@@ -33722,7 +33718,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" hidden="1">
       <c r="A23" s="5">
         <v>1250</v>
       </c>
@@ -33785,7 +33781,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" hidden="1">
       <c r="A24" s="5">
         <v>1260</v>
       </c>
@@ -33848,7 +33844,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" hidden="1">
       <c r="A25" s="5">
         <v>1270</v>
       </c>
@@ -33911,7 +33907,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" hidden="1">
       <c r="A26" s="5">
         <v>1280</v>
       </c>
@@ -33974,7 +33970,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" hidden="1">
       <c r="A27" s="5">
         <v>1290</v>
       </c>
@@ -34037,7 +34033,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" hidden="1">
       <c r="A28" s="5">
         <v>1300</v>
       </c>
@@ -34100,7 +34096,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" hidden="1">
       <c r="A29" s="5">
         <v>1310</v>
       </c>
@@ -34163,7 +34159,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" hidden="1">
       <c r="A30" s="5">
         <v>1320</v>
       </c>
@@ -34226,7 +34222,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" hidden="1">
       <c r="A31" s="5">
         <v>1330</v>
       </c>
@@ -34289,7 +34285,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" hidden="1">
       <c r="A32" s="5">
         <v>1340</v>
       </c>
@@ -34352,7 +34348,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" hidden="1">
       <c r="A33" s="5">
         <v>1350</v>
       </c>
@@ -34415,7 +34411,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" hidden="1">
       <c r="A34" s="5">
         <v>1360</v>
       </c>
@@ -34478,7 +34474,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" hidden="1">
       <c r="A35" s="5">
         <v>1370</v>
       </c>
@@ -34541,7 +34537,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" hidden="1">
       <c r="A36" s="5">
         <v>1380</v>
       </c>
@@ -34604,7 +34600,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" hidden="1">
       <c r="A37" s="5">
         <v>1390</v>
       </c>
@@ -34667,7 +34663,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" hidden="1">
       <c r="A38" s="5">
         <v>1400</v>
       </c>
@@ -34730,7 +34726,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" hidden="1">
       <c r="A39" s="5">
         <v>1410</v>
       </c>
@@ -34793,7 +34789,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" hidden="1">
       <c r="A40" s="5">
         <v>1420</v>
       </c>
@@ -34856,7 +34852,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" hidden="1">
       <c r="A41" s="5">
         <v>1430</v>
       </c>
@@ -34919,7 +34915,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" hidden="1">
       <c r="A42" s="5">
         <v>1440</v>
       </c>
@@ -34982,7 +34978,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" hidden="1">
       <c r="A43" s="5">
         <v>1450</v>
       </c>
@@ -35045,7 +35041,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" hidden="1">
       <c r="A44" s="5">
         <v>1460</v>
       </c>
@@ -35108,7 +35104,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" hidden="1">
       <c r="A45" s="5">
         <v>1470</v>
       </c>
@@ -35171,7 +35167,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" hidden="1">
       <c r="A46" s="5">
         <v>1480</v>
       </c>
@@ -35234,7 +35230,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" hidden="1">
       <c r="A47" s="5">
         <v>1490</v>
       </c>
@@ -35297,7 +35293,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" hidden="1">
       <c r="A48" s="5">
         <v>1500</v>
       </c>
@@ -35360,7 +35356,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" hidden="1">
       <c r="A49" s="5">
         <v>1510</v>
       </c>
@@ -35423,7 +35419,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" hidden="1">
       <c r="A50" s="5">
         <v>1520</v>
       </c>
@@ -35486,7 +35482,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" hidden="1">
       <c r="A51" s="5">
         <v>1530</v>
       </c>
@@ -35549,7 +35545,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" hidden="1">
       <c r="A52" s="5">
         <v>1540</v>
       </c>
@@ -35612,7 +35608,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" hidden="1">
       <c r="A53" s="5">
         <v>1550</v>
       </c>
@@ -35675,7 +35671,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" hidden="1">
       <c r="A54" s="5">
         <v>1560</v>
       </c>
@@ -35738,7 +35734,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" hidden="1">
       <c r="A55" s="5">
         <v>1570</v>
       </c>
@@ -35801,7 +35797,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" hidden="1">
       <c r="A56" s="5">
         <v>1580</v>
       </c>
@@ -35864,7 +35860,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" hidden="1">
       <c r="A57" s="5">
         <v>1590</v>
       </c>
@@ -35927,7 +35923,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" hidden="1">
       <c r="A58" s="5">
         <v>1600</v>
       </c>
@@ -35990,7 +35986,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" hidden="1">
       <c r="A59" s="5">
         <v>1610</v>
       </c>
@@ -36053,7 +36049,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" hidden="1">
       <c r="A60" s="5">
         <v>1620</v>
       </c>
@@ -36119,7 +36115,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" hidden="1">
       <c r="A61" s="5">
         <v>1630</v>
       </c>
@@ -36185,7 +36181,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" hidden="1">
       <c r="A62" s="5">
         <v>1640</v>
       </c>
@@ -36251,7 +36247,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" hidden="1">
       <c r="A63" s="5">
         <v>1650</v>
       </c>
@@ -36317,7 +36313,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" hidden="1">
       <c r="A64" s="5">
         <v>1660</v>
       </c>
@@ -36383,7 +36379,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" hidden="1">
       <c r="A65" s="5">
         <v>1670</v>
       </c>
@@ -36449,7 +36445,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" hidden="1">
       <c r="A66" s="5">
         <v>1680</v>
       </c>
@@ -36515,7 +36511,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" hidden="1">
       <c r="A67" s="5">
         <v>1690</v>
       </c>
@@ -36581,7 +36577,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" hidden="1">
       <c r="A68" s="5">
         <v>1700</v>
       </c>
@@ -36647,7 +36643,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" hidden="1">
       <c r="A69" s="5">
         <v>1710</v>
       </c>
@@ -36713,7 +36709,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" hidden="1">
       <c r="A70" s="5">
         <v>1720</v>
       </c>
@@ -36779,7 +36775,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" hidden="1">
       <c r="A71" s="5">
         <v>1730</v>
       </c>
@@ -36845,7 +36841,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" hidden="1">
       <c r="A72" s="5">
         <v>1740</v>
       </c>
@@ -36911,7 +36907,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" hidden="1">
       <c r="A73" s="5">
         <v>1750</v>
       </c>
@@ -36977,7 +36973,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" hidden="1">
       <c r="A74" s="5">
         <v>1760</v>
       </c>
@@ -37043,7 +37039,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" hidden="1">
       <c r="A75" s="5">
         <v>1770</v>
       </c>
@@ -37109,7 +37105,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" hidden="1">
       <c r="A76" s="5">
         <v>1780</v>
       </c>
@@ -37175,7 +37171,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" hidden="1">
       <c r="A77" s="5">
         <v>1790</v>
       </c>
@@ -37241,7 +37237,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" hidden="1">
       <c r="A78" s="5">
         <v>1800</v>
       </c>
@@ -37439,7 +37435,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" hidden="1">
       <c r="A81" s="5">
         <v>1830</v>
       </c>
@@ -37505,7 +37501,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" hidden="1">
       <c r="A82" s="5">
         <v>1840</v>
       </c>
@@ -37571,7 +37567,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" hidden="1">
       <c r="A83" s="5">
         <v>1850</v>
       </c>
@@ -37637,7 +37633,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" hidden="1">
       <c r="A84" s="5">
         <v>1860</v>
       </c>
@@ -37703,7 +37699,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" hidden="1">
       <c r="A85" s="5">
         <v>1870</v>
       </c>
@@ -37769,7 +37765,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" hidden="1">
       <c r="A86" s="5">
         <v>1880</v>
       </c>
@@ -37835,7 +37831,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" hidden="1">
       <c r="A87" s="5">
         <v>1890</v>
       </c>
@@ -37901,7 +37897,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" hidden="1">
       <c r="A88" s="5">
         <v>1900</v>
       </c>
@@ -37967,7 +37963,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" hidden="1">
       <c r="A89" s="5">
         <v>1910</v>
       </c>
@@ -38033,7 +38029,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" hidden="1">
       <c r="A90" s="5">
         <v>1920</v>
       </c>
@@ -38099,7 +38095,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" hidden="1">
       <c r="A91" s="5">
         <v>1930</v>
       </c>
@@ -38165,7 +38161,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" hidden="1">
       <c r="A92" s="5">
         <v>1940</v>
       </c>
@@ -38231,7 +38227,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" hidden="1">
       <c r="A93" s="5">
         <v>1950</v>
       </c>
@@ -38297,7 +38293,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" hidden="1">
       <c r="A94" s="5">
         <v>1960</v>
       </c>
@@ -38363,7 +38359,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" hidden="1">
       <c r="A95" s="5">
         <v>1970</v>
       </c>
@@ -38429,7 +38425,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" hidden="1">
       <c r="A96" s="5">
         <v>1980</v>
       </c>
@@ -38495,7 +38491,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" hidden="1">
       <c r="A97" s="5">
         <v>1990</v>
       </c>
@@ -38561,7 +38557,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" hidden="1">
       <c r="A98" s="5">
         <v>2000</v>
       </c>
@@ -38627,7 +38623,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" hidden="1">
       <c r="A99" s="5">
         <v>2010</v>
       </c>
@@ -38693,7 +38689,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" hidden="1">
       <c r="A100" s="5">
         <v>2020</v>
       </c>
@@ -38759,7 +38755,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" hidden="1">
       <c r="A101" s="5">
         <v>2030</v>
       </c>
@@ -38825,7 +38821,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" hidden="1">
       <c r="A102" s="5">
         <v>2040</v>
       </c>
@@ -38891,7 +38887,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" hidden="1">
       <c r="A103" s="5">
         <v>2050</v>
       </c>
@@ -38957,7 +38953,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" hidden="1">
       <c r="A104" s="5">
         <v>2060</v>
       </c>
@@ -39023,7 +39019,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" hidden="1">
       <c r="A105" s="5">
         <v>2070</v>
       </c>
@@ -39089,7 +39085,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" hidden="1">
       <c r="A106" s="5">
         <v>2080</v>
       </c>
@@ -39158,7 +39154,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" hidden="1">
       <c r="A107" s="5">
         <v>2090</v>
       </c>
@@ -39227,7 +39223,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" hidden="1">
       <c r="A108" s="5">
         <v>2100</v>
       </c>
@@ -39296,7 +39292,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" hidden="1">
       <c r="A109" s="5">
         <v>2110</v>
       </c>
@@ -39365,7 +39361,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" hidden="1">
       <c r="A110" s="5">
         <v>2120</v>
       </c>
@@ -39434,7 +39430,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" hidden="1">
       <c r="A111" s="5">
         <v>2130</v>
       </c>
@@ -39503,7 +39499,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" hidden="1">
       <c r="A112" s="5">
         <v>2140</v>
       </c>
@@ -39572,7 +39568,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" hidden="1">
       <c r="A113" s="5">
         <v>2150</v>
       </c>
@@ -39641,7 +39637,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" hidden="1">
       <c r="A114" s="5">
         <v>2160</v>
       </c>
@@ -39710,7 +39706,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" hidden="1">
       <c r="A115" s="5">
         <v>2170</v>
       </c>
@@ -39779,7 +39775,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" hidden="1">
       <c r="A116" s="5">
         <v>2180</v>
       </c>
@@ -39848,7 +39844,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" hidden="1">
       <c r="A117" s="5">
         <v>2190</v>
       </c>
@@ -39921,7 +39917,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" hidden="1">
       <c r="A118" s="5">
         <v>2200</v>
       </c>
@@ -39994,7 +39990,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" hidden="1">
       <c r="A119" s="5">
         <v>2210</v>
       </c>
@@ -40067,7 +40063,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" hidden="1">
       <c r="A120" s="5">
         <v>2220</v>
       </c>
@@ -40140,7 +40136,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" hidden="1">
       <c r="A121" s="5">
         <v>2230</v>
       </c>
@@ -40286,7 +40282,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" hidden="1">
       <c r="A123" s="5">
         <v>2250</v>
       </c>
@@ -40359,7 +40355,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" hidden="1">
       <c r="A124" s="5">
         <v>2260</v>
       </c>
@@ -40432,7 +40428,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" hidden="1">
       <c r="A125" s="5">
         <v>2270</v>
       </c>
@@ -40505,7 +40501,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" hidden="1">
       <c r="A126" s="5">
         <v>2280</v>
       </c>
@@ -40578,7 +40574,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" hidden="1">
       <c r="A127" s="5">
         <v>2290</v>
       </c>
@@ -40651,7 +40647,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" hidden="1">
       <c r="A128" s="5">
         <v>2300</v>
       </c>
@@ -40724,7 +40720,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" hidden="1">
       <c r="A129" s="5">
         <v>2310</v>
       </c>
@@ -40797,7 +40793,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" hidden="1">
       <c r="A130" s="5">
         <v>2320</v>
       </c>
@@ -40870,7 +40866,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" hidden="1">
       <c r="A131" s="5">
         <v>2330</v>
       </c>
@@ -40943,7 +40939,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" hidden="1">
       <c r="A132" s="5">
         <v>2340</v>
       </c>
@@ -41016,7 +41012,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" hidden="1">
       <c r="A133" s="5">
         <v>2350</v>
       </c>
@@ -41089,7 +41085,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" hidden="1">
       <c r="A134" s="5">
         <v>2360</v>
       </c>
@@ -41162,7 +41158,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" hidden="1">
       <c r="A135" s="5">
         <v>2370</v>
       </c>
@@ -41235,7 +41231,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" hidden="1">
       <c r="A136" s="5">
         <v>2380</v>
       </c>
@@ -41308,7 +41304,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" hidden="1">
       <c r="A137" s="5">
         <v>2390</v>
       </c>
@@ -41377,7 +41373,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" hidden="1">
       <c r="A138" s="5">
         <v>2400</v>
       </c>
@@ -41446,7 +41442,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" hidden="1">
       <c r="A139" s="5">
         <v>2410</v>
       </c>
@@ -41515,7 +41511,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" hidden="1">
       <c r="A140" s="5">
         <v>2420</v>
       </c>
@@ -41584,7 +41580,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" hidden="1">
       <c r="A141" s="5">
         <v>2430</v>
       </c>
@@ -41653,7 +41649,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" hidden="1">
       <c r="A142" s="5">
         <v>2440</v>
       </c>
@@ -41722,7 +41718,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" hidden="1">
       <c r="A143" s="5">
         <v>2450</v>
       </c>
@@ -41791,7 +41787,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" hidden="1">
       <c r="A144" s="5">
         <v>2460</v>
       </c>
@@ -41860,7 +41856,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" hidden="1">
       <c r="A145" s="5">
         <v>2470</v>
       </c>
@@ -41929,7 +41925,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" hidden="1">
       <c r="A146" s="5">
         <v>2480</v>
       </c>
@@ -41998,7 +41994,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" hidden="1">
       <c r="A147" s="5">
         <v>2490</v>
       </c>
@@ -42067,7 +42063,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" hidden="1">
       <c r="A148" s="5">
         <v>2500</v>
       </c>
@@ -42136,7 +42132,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" hidden="1">
       <c r="A149" s="5">
         <v>2510</v>
       </c>
@@ -42209,7 +42205,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" hidden="1">
       <c r="A150" s="5">
         <v>2520</v>
       </c>
@@ -42279,7 +42275,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" hidden="1">
       <c r="A151" s="5">
         <v>2530</v>
       </c>
@@ -42349,7 +42345,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" hidden="1">
       <c r="A152" s="5">
         <v>2540</v>
       </c>
@@ -42419,7 +42415,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" hidden="1">
       <c r="A153" s="5">
         <v>2550</v>
       </c>
@@ -42489,7 +42485,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" hidden="1">
       <c r="A154" s="5">
         <v>2560</v>
       </c>
@@ -42559,7 +42555,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" hidden="1">
       <c r="A155" s="5">
         <v>2570</v>
       </c>
@@ -42629,7 +42625,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" hidden="1">
       <c r="A156" s="5">
         <v>2580</v>
       </c>
@@ -42702,7 +42698,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" hidden="1">
       <c r="A157" s="5">
         <v>2590</v>
       </c>
@@ -42772,7 +42768,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" hidden="1">
       <c r="A158" s="5">
         <v>2600</v>
       </c>
@@ -42842,7 +42838,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" hidden="1">
       <c r="A159" s="5">
         <v>2610</v>
       </c>
@@ -42915,7 +42911,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" hidden="1">
       <c r="A160" s="5">
         <v>2620</v>
       </c>
@@ -42985,7 +42981,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" hidden="1">
       <c r="A161" s="5">
         <v>2630</v>
       </c>
@@ -43055,7 +43051,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" hidden="1">
       <c r="A162" s="5">
         <v>2640</v>
       </c>
@@ -43128,7 +43124,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" hidden="1">
       <c r="A163" s="5">
         <v>2650</v>
       </c>
@@ -43198,7 +43194,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" hidden="1">
       <c r="A164" s="5">
         <v>2660</v>
       </c>
@@ -43268,7 +43264,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" hidden="1">
       <c r="A165" s="5">
         <v>2670</v>
       </c>
@@ -43338,7 +43334,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" hidden="1">
       <c r="A166" s="5">
         <v>2680</v>
       </c>
@@ -43407,7 +43403,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" hidden="1">
       <c r="A167" s="5">
         <v>2690</v>
       </c>
@@ -43477,7 +43473,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" hidden="1">
       <c r="A168" s="5">
         <v>2700</v>
       </c>
@@ -43546,7 +43542,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" hidden="1">
       <c r="A169" s="5">
         <v>2710</v>
       </c>
@@ -43615,7 +43611,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" hidden="1">
       <c r="A170" s="5">
         <v>2720</v>
       </c>
@@ -43684,7 +43680,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:23" hidden="1">
       <c r="A171" s="5">
         <v>2730</v>
       </c>
@@ -43753,7 +43749,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:23" hidden="1">
       <c r="A172" s="5">
         <v>2740</v>
       </c>
@@ -43822,7 +43818,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:23" hidden="1">
       <c r="A173" s="5">
         <v>2750</v>
       </c>
@@ -43891,7 +43887,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:23" hidden="1">
       <c r="A174" s="5">
         <v>2760</v>
       </c>
@@ -43960,7 +43956,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:23" hidden="1">
       <c r="A175" s="5">
         <v>2770</v>
       </c>
@@ -44029,7 +44025,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:23" hidden="1">
       <c r="A176" s="5">
         <v>2780</v>
       </c>
@@ -44098,7 +44094,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:23" hidden="1">
       <c r="A177" s="5">
         <v>2790</v>
       </c>
@@ -44167,7 +44163,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:23" hidden="1">
       <c r="A178" s="5">
         <v>2800</v>
       </c>
@@ -44236,7 +44232,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:23" hidden="1">
       <c r="A179" s="5">
         <v>2810</v>
       </c>
@@ -44512,7 +44508,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:23" hidden="1">
       <c r="A183" s="5">
         <v>2850</v>
       </c>
@@ -44655,7 +44651,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:23" hidden="1">
       <c r="A185" s="5">
         <v>2870</v>
       </c>
@@ -44725,7 +44721,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:23" hidden="1">
       <c r="A186" s="5">
         <v>2880</v>
       </c>
@@ -44864,7 +44860,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:23" hidden="1">
       <c r="A188" s="5">
         <v>2900</v>
       </c>
@@ -44933,7 +44929,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:23" hidden="1">
       <c r="A189" s="5">
         <v>2910</v>
       </c>
@@ -45003,7 +44999,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:23" hidden="1">
       <c r="A190" s="5">
         <v>2920</v>
       </c>
@@ -45072,7 +45068,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:23" hidden="1">
       <c r="A191" s="5">
         <v>2930</v>
       </c>
@@ -45142,7 +45138,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:23" hidden="1">
       <c r="A192" s="5">
         <v>2940</v>
       </c>
@@ -45211,7 +45207,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:23" hidden="1">
       <c r="A193" s="5">
         <v>2950</v>
       </c>
@@ -45281,7 +45277,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:23" hidden="1">
       <c r="A194" s="5">
         <v>2960</v>
       </c>
@@ -45351,7 +45347,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:23" hidden="1">
       <c r="A195" s="5">
         <v>2970</v>
       </c>
@@ -45421,7 +45417,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:23" hidden="1">
       <c r="A196" s="5">
         <v>2980</v>
       </c>
@@ -45491,7 +45487,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:23" hidden="1">
       <c r="A197" s="5">
         <v>2990</v>
       </c>
@@ -45560,7 +45556,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:23" hidden="1">
       <c r="A198" s="5">
         <v>3000</v>
       </c>
@@ -45629,7 +45625,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:23" hidden="1">
       <c r="A199" s="5">
         <v>3010</v>
       </c>
@@ -45698,7 +45694,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:23" hidden="1">
       <c r="A200" s="5">
         <v>3020</v>
       </c>
@@ -45767,7 +45763,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:23" hidden="1">
       <c r="A201" s="5">
         <v>3030</v>
       </c>
@@ -45836,7 +45832,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:23" hidden="1">
       <c r="A202" s="5">
         <v>3040</v>
       </c>
@@ -45905,7 +45901,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:23" hidden="1">
       <c r="A203" s="5">
         <v>3050</v>
       </c>
@@ -45975,7 +45971,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:23" hidden="1">
       <c r="A204" s="5">
         <v>3060</v>
       </c>
@@ -46044,7 +46040,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:23" hidden="1">
       <c r="A205" s="5">
         <v>3070</v>
       </c>
@@ -46113,7 +46109,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:23" hidden="1">
       <c r="A206" s="5">
         <v>3080</v>
       </c>
@@ -46182,7 +46178,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:23" hidden="1">
       <c r="A207" s="5">
         <v>3090</v>
       </c>
@@ -46251,7 +46247,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:23" hidden="1">
       <c r="A208" s="5">
         <v>3100</v>
       </c>
@@ -46320,7 +46316,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:23" hidden="1">
       <c r="A209" s="5">
         <v>3110</v>
       </c>
@@ -46389,7 +46385,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:23" hidden="1">
       <c r="A210" s="5">
         <v>3120</v>
       </c>
@@ -46458,7 +46454,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:23" hidden="1">
       <c r="A211" s="5">
         <v>3130</v>
       </c>
@@ -46527,7 +46523,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:23" hidden="1">
       <c r="A212" s="5">
         <v>3140</v>
       </c>
@@ -46596,7 +46592,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:23" hidden="1">
       <c r="A213" s="5">
         <v>3150</v>
       </c>
@@ -46665,7 +46661,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:23" hidden="1">
       <c r="A214" s="5">
         <v>3160</v>
       </c>
@@ -46941,7 +46937,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:23" hidden="1">
       <c r="A218" s="5">
         <v>3200</v>
       </c>
@@ -47079,7 +47075,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:23" hidden="1">
       <c r="A220" s="5">
         <v>3220</v>
       </c>
@@ -47149,7 +47145,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:23" hidden="1">
       <c r="A221" s="5">
         <v>3230</v>
       </c>
@@ -47222,7 +47218,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:23" hidden="1">
       <c r="A222" s="5">
         <v>3240</v>
       </c>
@@ -47292,7 +47288,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:23" hidden="1">
       <c r="A223" s="5">
         <v>3250</v>
       </c>
@@ -47362,7 +47358,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:23" hidden="1">
       <c r="A224" s="5">
         <v>3260</v>
       </c>
@@ -47435,7 +47431,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:23" hidden="1">
       <c r="A225" s="5">
         <v>3270</v>
       </c>
@@ -47505,7 +47501,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:23" hidden="1">
       <c r="A226" s="5">
         <v>3280</v>
       </c>
@@ -47575,7 +47571,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:23" hidden="1">
       <c r="A227" s="5">
         <v>3290</v>
       </c>
@@ -47645,7 +47641,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:23" hidden="1">
       <c r="A228" s="5">
         <v>3300</v>
       </c>
@@ -47715,7 +47711,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:23" hidden="1">
       <c r="A229" s="5">
         <v>3310</v>
       </c>
@@ -47785,7 +47781,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:23" hidden="1">
       <c r="A230" s="5">
         <v>3320</v>
       </c>
@@ -47855,7 +47851,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:23" hidden="1">
       <c r="A231" s="5">
         <v>3330</v>
       </c>
@@ -47925,7 +47921,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:23" hidden="1">
       <c r="A232" s="5">
         <v>3340</v>
       </c>
@@ -47995,7 +47991,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:23" hidden="1">
       <c r="A233" s="5">
         <v>3350</v>
       </c>
@@ -48065,7 +48061,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:23" hidden="1">
       <c r="A234" s="5">
         <v>3360</v>
       </c>
@@ -48134,7 +48130,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:23" hidden="1">
       <c r="A235" s="5">
         <v>3370</v>
       </c>
@@ -48203,7 +48199,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:23" hidden="1">
       <c r="A236" s="5">
         <v>3380</v>
       </c>
@@ -48272,7 +48268,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:23" hidden="1">
       <c r="A237" s="5">
         <v>3390</v>
       </c>
@@ -48341,7 +48337,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:23" hidden="1">
       <c r="A238" s="5">
         <v>3400</v>
       </c>
@@ -48414,7 +48410,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:23" hidden="1">
       <c r="A239" s="5">
         <v>3410</v>
       </c>
@@ -48484,7 +48480,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:23" hidden="1">
       <c r="A240" s="5">
         <v>3420</v>
       </c>
@@ -48554,7 +48550,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:23" hidden="1">
       <c r="A241" s="5">
         <v>3430</v>
       </c>
@@ -48624,7 +48620,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:23" hidden="1">
       <c r="A242" s="5">
         <v>3440</v>
       </c>
@@ -48697,7 +48693,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:23" hidden="1">
       <c r="A243" s="5">
         <v>3450</v>
       </c>
@@ -48770,7 +48766,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:23" hidden="1">
       <c r="A244" s="5">
         <v>3460</v>
       </c>
@@ -48843,7 +48839,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:23" hidden="1">
       <c r="A245" s="5">
         <v>3470</v>
       </c>
@@ -48916,7 +48912,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:23" hidden="1">
       <c r="A246" s="5">
         <v>3480</v>
       </c>
@@ -48989,7 +48985,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:23" hidden="1">
       <c r="A247" s="5">
         <v>3490</v>
       </c>
@@ -49062,7 +49058,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:23" hidden="1">
       <c r="A248" s="5">
         <v>3500</v>
       </c>
@@ -49135,7 +49131,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:23" hidden="1">
       <c r="A249" s="5">
         <v>3510</v>
       </c>
@@ -49279,7 +49275,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:23" hidden="1">
       <c r="A251" s="5">
         <v>3530</v>
       </c>
@@ -49351,7 +49347,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:23" hidden="1">
       <c r="A252" s="5">
         <v>3540</v>
       </c>
@@ -49423,7 +49419,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:23" hidden="1">
       <c r="A253" s="5">
         <v>3550</v>
       </c>
@@ -49495,7 +49491,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:23" hidden="1">
       <c r="A254" s="5">
         <v>3560</v>
       </c>
@@ -49567,7 +49563,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:23" hidden="1">
       <c r="A255" s="5">
         <v>3570</v>
       </c>
@@ -49639,7 +49635,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:23" hidden="1">
       <c r="A256" s="5">
         <v>3580</v>
       </c>
@@ -49711,7 +49707,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:23" hidden="1">
       <c r="A257" s="5">
         <v>3590</v>
       </c>
@@ -49783,7 +49779,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:23" hidden="1">
       <c r="A258" s="5">
         <v>3600</v>
       </c>
@@ -49855,7 +49851,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:23" hidden="1">
       <c r="A259" s="5">
         <v>3610</v>
       </c>
@@ -49927,7 +49923,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:23" hidden="1">
       <c r="A260" s="5">
         <v>3620</v>
       </c>
@@ -49999,7 +49995,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:23" hidden="1">
       <c r="A261" s="5">
         <v>3630</v>
       </c>
@@ -50071,7 +50067,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:23" hidden="1">
       <c r="A262" s="5">
         <v>3640</v>
       </c>
@@ -50143,7 +50139,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:23" hidden="1">
       <c r="A263" s="5">
         <v>3650</v>
       </c>
@@ -50215,7 +50211,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:23" hidden="1">
       <c r="A264" s="5">
         <v>3660</v>
       </c>
@@ -50288,7 +50284,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:23" hidden="1">
       <c r="A265" s="5">
         <v>3670</v>
       </c>
@@ -50434,7 +50430,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:23" hidden="1">
       <c r="A267" s="5">
         <v>3690</v>
       </c>
@@ -50506,7 +50502,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:23" hidden="1">
       <c r="A268" s="5">
         <v>3700</v>
       </c>
@@ -50578,7 +50574,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:23" hidden="1">
       <c r="A269" s="5">
         <v>3710</v>
       </c>
@@ -50722,7 +50718,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:23" hidden="1">
       <c r="A271" s="5">
         <v>3730</v>
       </c>
@@ -50794,7 +50790,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:23" hidden="1">
       <c r="A272" s="5">
         <v>3740</v>
       </c>
@@ -50866,7 +50862,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:23" hidden="1">
       <c r="A273" s="5">
         <v>3750</v>
       </c>
@@ -50938,7 +50934,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:23" hidden="1">
       <c r="A274" s="5">
         <v>3760</v>
       </c>
@@ -51010,7 +51006,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:23" hidden="1">
       <c r="A275" s="5">
         <v>3770</v>
       </c>
@@ -51082,7 +51078,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:23" hidden="1">
       <c r="A276" s="5">
         <v>3780</v>
       </c>
@@ -51154,7 +51150,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:23" hidden="1">
       <c r="A277" s="5">
         <v>3790</v>
       </c>
@@ -51226,7 +51222,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:23" hidden="1">
       <c r="A278" s="5">
         <v>3800</v>
       </c>
@@ -51298,7 +51294,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:23" hidden="1">
       <c r="A279" s="5">
         <v>3810</v>
       </c>
@@ -51370,7 +51366,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:23" hidden="1">
       <c r="A280" s="5">
         <v>3820</v>
       </c>
@@ -51442,7 +51438,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:23" hidden="1">
       <c r="A281" s="5">
         <v>3830</v>
       </c>
@@ -51514,7 +51510,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:23" hidden="1">
       <c r="A282" s="5">
         <v>3840</v>
       </c>
@@ -51586,7 +51582,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:23" hidden="1">
       <c r="A283" s="5">
         <v>3850</v>
       </c>
@@ -51658,7 +51654,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:23" hidden="1">
       <c r="A284" s="5">
         <v>3860</v>
       </c>
@@ -51730,7 +51726,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:23" hidden="1">
       <c r="A285" s="5">
         <v>3870</v>
       </c>
@@ -51803,7 +51799,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:23" hidden="1">
       <c r="A286" s="5">
         <v>3880</v>
       </c>
@@ -51876,7 +51872,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:23" hidden="1">
       <c r="A287" s="5">
         <v>3890</v>
       </c>
@@ -51949,7 +51945,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:23" hidden="1">
       <c r="A288" s="5">
         <v>3900</v>
       </c>
@@ -52022,7 +52018,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:23" hidden="1">
       <c r="A289" s="5">
         <v>3910</v>
       </c>
@@ -52095,7 +52091,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:23" hidden="1">
       <c r="A290" s="5">
         <v>3920</v>
       </c>
@@ -52313,7 +52309,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:23" hidden="1">
       <c r="A293" s="5">
         <v>3950</v>
       </c>
@@ -52385,7 +52381,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:23" hidden="1">
       <c r="A294" s="5">
         <v>3960</v>
       </c>
@@ -52457,7 +52453,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:23" hidden="1">
       <c r="A295" s="5">
         <v>3970</v>
       </c>
@@ -52529,7 +52525,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:23" hidden="1">
       <c r="A296" s="5">
         <v>3980</v>
       </c>
@@ -52602,7 +52598,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:23" hidden="1">
       <c r="A297" s="5">
         <v>3990</v>
       </c>
@@ -52675,7 +52671,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:23" hidden="1">
       <c r="A298" s="5">
         <v>4000</v>
       </c>
@@ -52751,7 +52747,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:23" hidden="1">
       <c r="A299" s="5">
         <v>4010</v>
       </c>
@@ -52824,7 +52820,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" spans="1:23" hidden="1">
       <c r="A300" s="5">
         <v>4020</v>
       </c>
@@ -52897,7 +52893,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="301" spans="1:23">
+    <row r="301" spans="1:23" hidden="1">
       <c r="A301" s="5">
         <v>4030</v>
       </c>
@@ -52970,7 +52966,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" spans="1:23" hidden="1">
       <c r="A302" s="5">
         <v>4470</v>
       </c>
@@ -53189,7 +53185,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:23" hidden="1">
       <c r="A305" s="5">
         <v>4500</v>
       </c>
@@ -53408,7 +53404,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:23" hidden="1">
       <c r="A308" s="5">
         <v>4530</v>
       </c>
@@ -53481,7 +53477,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:23" hidden="1">
       <c r="A309" s="5">
         <v>4540</v>
       </c>
@@ -53553,7 +53549,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:23" hidden="1">
       <c r="A310" s="5">
         <v>4550</v>
       </c>
@@ -53625,7 +53621,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" spans="1:23" hidden="1">
       <c r="A311" s="5">
         <v>4560</v>
       </c>
@@ -53697,7 +53693,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" spans="1:23" hidden="1">
       <c r="A312" s="5">
         <v>4570</v>
       </c>
@@ -53769,7 +53765,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" spans="1:23" hidden="1">
       <c r="A313" s="5">
         <v>4580</v>
       </c>
@@ -53841,7 +53837,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" spans="1:23" hidden="1">
       <c r="A314" s="5">
         <v>4590</v>
       </c>
@@ -53913,7 +53909,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" spans="1:23" hidden="1">
       <c r="A315" s="5">
         <v>4600</v>
       </c>
@@ -53985,7 +53981,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="316" spans="1:23">
+    <row r="316" spans="1:23" hidden="1">
       <c r="A316" s="5">
         <v>4610</v>
       </c>
@@ -54057,7 +54053,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="317" spans="1:23">
+    <row r="317" spans="1:23" hidden="1">
       <c r="A317" s="5">
         <v>4620</v>
       </c>
@@ -54129,7 +54125,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="318" spans="1:23">
+    <row r="318" spans="1:23" hidden="1">
       <c r="A318" s="5">
         <v>4630</v>
       </c>
@@ -54201,7 +54197,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="319" spans="1:23">
+    <row r="319" spans="1:23" hidden="1">
       <c r="A319" s="5">
         <v>4640</v>
       </c>
@@ -54273,7 +54269,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="320" spans="1:23">
+    <row r="320" spans="1:23" hidden="1">
       <c r="A320" s="5">
         <v>4650</v>
       </c>
@@ -54345,7 +54341,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="321" spans="1:23">
+    <row r="321" spans="1:23" hidden="1">
       <c r="A321" s="5">
         <v>4660</v>
       </c>
@@ -54417,7 +54413,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="322" spans="1:23">
+    <row r="322" spans="1:23" hidden="1">
       <c r="A322" s="5">
         <v>4670</v>
       </c>
@@ -54489,7 +54485,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="323" spans="1:23">
+    <row r="323" spans="1:23" hidden="1">
       <c r="A323" s="5">
         <v>4680</v>
       </c>
@@ -54561,7 +54557,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="324" spans="1:23">
+    <row r="324" spans="1:23" hidden="1">
       <c r="A324" s="5">
         <v>4690</v>
       </c>
@@ -54633,7 +54629,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="325" spans="1:23">
+    <row r="325" spans="1:23" hidden="1">
       <c r="A325" s="5">
         <v>4700</v>
       </c>
@@ -54705,7 +54701,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="326" spans="1:23">
+    <row r="326" spans="1:23" hidden="1">
       <c r="A326" s="5">
         <v>4710</v>
       </c>
@@ -54777,7 +54773,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="327" spans="1:23">
+    <row r="327" spans="1:23" hidden="1">
       <c r="A327" s="5">
         <v>4720</v>
       </c>
@@ -54849,7 +54845,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="328" spans="1:23">
+    <row r="328" spans="1:23" hidden="1">
       <c r="A328" s="5">
         <v>4730</v>
       </c>
@@ -54921,7 +54917,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="329" spans="1:23">
+    <row r="329" spans="1:23" hidden="1">
       <c r="A329" s="5">
         <v>4740</v>
       </c>
@@ -54993,7 +54989,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="330" spans="1:23">
+    <row r="330" spans="1:23" hidden="1">
       <c r="A330" s="5">
         <v>4750</v>
       </c>
@@ -55065,7 +55061,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="331" spans="1:23">
+    <row r="331" spans="1:23" hidden="1">
       <c r="A331" s="5">
         <v>4760</v>
       </c>
@@ -55137,7 +55133,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="332" spans="1:23">
+    <row r="332" spans="1:23" hidden="1">
       <c r="A332" s="5">
         <v>4770</v>
       </c>
@@ -55209,7 +55205,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="333" spans="1:23">
+    <row r="333" spans="1:23" hidden="1">
       <c r="A333" s="5">
         <v>4780</v>
       </c>
@@ -55281,7 +55277,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="334" spans="1:23">
+    <row r="334" spans="1:23" hidden="1">
       <c r="A334" s="5">
         <v>4790</v>
       </c>
@@ -55353,7 +55349,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="335" spans="1:23">
+    <row r="335" spans="1:23" hidden="1">
       <c r="A335" s="5">
         <v>4800</v>
       </c>
@@ -55425,7 +55421,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="336" spans="1:23">
+    <row r="336" spans="1:23" hidden="1">
       <c r="A336" s="5">
         <v>4810</v>
       </c>
@@ -55497,7 +55493,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="337" spans="1:23">
+    <row r="337" spans="1:23" hidden="1">
       <c r="A337" s="5">
         <v>4820</v>
       </c>
@@ -55569,7 +55565,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="338" spans="1:23">
+    <row r="338" spans="1:23" hidden="1">
       <c r="A338" s="5">
         <v>4830</v>
       </c>
@@ -55641,7 +55637,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="339" spans="1:23">
+    <row r="339" spans="1:23" hidden="1">
       <c r="A339" s="5">
         <v>4840</v>
       </c>
@@ -55713,7 +55709,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="340" spans="1:23">
+    <row r="340" spans="1:23" hidden="1">
       <c r="A340" s="5">
         <v>4850</v>
       </c>
@@ -55785,7 +55781,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="341" spans="1:23">
+    <row r="341" spans="1:23" hidden="1">
       <c r="A341" s="5">
         <v>4860</v>
       </c>
@@ -56001,7 +55997,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="344" spans="1:23">
+    <row r="344" spans="1:23" hidden="1">
       <c r="A344" s="5">
         <v>4890</v>
       </c>
@@ -56073,7 +56069,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="345" spans="1:23">
+    <row r="345" spans="1:23" hidden="1">
       <c r="A345" s="5">
         <v>4900</v>
       </c>
@@ -56145,7 +56141,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="346" spans="1:23">
+    <row r="346" spans="1:23" hidden="1">
       <c r="A346" s="5">
         <v>4910</v>
       </c>
@@ -56217,7 +56213,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="347" spans="1:23">
+    <row r="347" spans="1:23" hidden="1">
       <c r="A347" s="5">
         <v>4920</v>
       </c>
@@ -56289,7 +56285,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="348" spans="1:23">
+    <row r="348" spans="1:23" hidden="1">
       <c r="A348" s="5">
         <v>4930</v>
       </c>
@@ -56361,7 +56357,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="349" spans="1:23">
+    <row r="349" spans="1:23" hidden="1">
       <c r="A349" s="5">
         <v>4940</v>
       </c>
@@ -56433,7 +56429,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="350" spans="1:23">
+    <row r="350" spans="1:23" hidden="1">
       <c r="A350" s="5">
         <v>4950</v>
       </c>
@@ -56505,7 +56501,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="351" spans="1:23">
+    <row r="351" spans="1:23" hidden="1">
       <c r="A351" s="5">
         <v>4960</v>
       </c>
@@ -56577,7 +56573,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="352" spans="1:23">
+    <row r="352" spans="1:23" hidden="1">
       <c r="A352" s="5">
         <v>4970</v>
       </c>
@@ -56649,7 +56645,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="353" spans="1:23">
+    <row r="353" spans="1:23" hidden="1">
       <c r="A353" s="5">
         <v>4980</v>
       </c>
@@ -56721,7 +56717,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="354" spans="1:23">
+    <row r="354" spans="1:23" hidden="1">
       <c r="A354" s="5">
         <v>4990</v>
       </c>
@@ -56793,7 +56789,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="355" spans="1:23">
+    <row r="355" spans="1:23" hidden="1">
       <c r="A355" s="5">
         <v>5000</v>
       </c>
@@ -56865,7 +56861,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="356" spans="1:23">
+    <row r="356" spans="1:23" hidden="1">
       <c r="A356" s="5">
         <v>5010</v>
       </c>
@@ -56937,7 +56933,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="357" spans="1:23">
+    <row r="357" spans="1:23" hidden="1">
       <c r="A357" s="5">
         <v>5020</v>
       </c>
@@ -57009,7 +57005,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="358" spans="1:23">
+    <row r="358" spans="1:23" hidden="1">
       <c r="A358" s="5">
         <v>5030</v>
       </c>
@@ -57081,7 +57077,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="359" spans="1:23">
+    <row r="359" spans="1:23" hidden="1">
       <c r="A359" s="5">
         <v>5040</v>
       </c>
@@ -57297,7 +57293,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="362" spans="1:23">
+    <row r="362" spans="1:23" hidden="1">
       <c r="A362" s="5">
         <v>5070</v>
       </c>
@@ -57369,7 +57365,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="363" spans="1:23">
+    <row r="363" spans="1:23" hidden="1">
       <c r="A363" s="5">
         <v>5080</v>
       </c>
@@ -57445,7 +57441,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="364" spans="1:23">
+    <row r="364" spans="1:23" hidden="1">
       <c r="A364" s="5">
         <v>5090</v>
       </c>
@@ -57518,7 +57514,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="365" spans="1:23">
+    <row r="365" spans="1:23" hidden="1">
       <c r="A365" s="5">
         <v>5100</v>
       </c>
@@ -57591,7 +57587,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="366" spans="1:23">
+    <row r="366" spans="1:23" hidden="1">
       <c r="A366" s="5">
         <v>5110</v>
       </c>
@@ -57664,7 +57660,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="367" spans="1:23">
+    <row r="367" spans="1:23" hidden="1">
       <c r="A367" s="5">
         <v>5120</v>
       </c>
@@ -57737,7 +57733,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="368" spans="1:23">
+    <row r="368" spans="1:23" hidden="1">
       <c r="A368" s="5">
         <v>5130</v>
       </c>
@@ -57810,7 +57806,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="369" spans="1:23">
+    <row r="369" spans="1:23" hidden="1">
       <c r="A369" s="5">
         <v>5140</v>
       </c>
@@ -57883,7 +57879,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="370" spans="1:23">
+    <row r="370" spans="1:23" hidden="1">
       <c r="A370" s="5">
         <v>5150</v>
       </c>
@@ -57956,7 +57952,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="371" spans="1:23">
+    <row r="371" spans="1:23" hidden="1">
       <c r="A371" s="5">
         <v>5160</v>
       </c>
@@ -58029,7 +58025,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="372" spans="1:23">
+    <row r="372" spans="1:23" hidden="1">
       <c r="A372" s="5">
         <v>5170</v>
       </c>
@@ -58102,7 +58098,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="373" spans="1:23">
+    <row r="373" spans="1:23" hidden="1">
       <c r="A373" s="5">
         <v>5180</v>
       </c>
@@ -58174,7 +58170,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="374" spans="1:23">
+    <row r="374" spans="1:23" hidden="1">
       <c r="A374" s="5">
         <v>5190</v>
       </c>
@@ -58318,7 +58314,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="376" spans="1:23">
+    <row r="376" spans="1:23" hidden="1">
       <c r="A376" s="5">
         <v>5210</v>
       </c>
@@ -58390,7 +58386,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="377" spans="1:23">
+    <row r="377" spans="1:23" hidden="1">
       <c r="A377" s="5">
         <v>5220</v>
       </c>
@@ -58462,7 +58458,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="378" spans="1:23">
+    <row r="378" spans="1:23" hidden="1">
       <c r="A378" s="5">
         <v>5230</v>
       </c>
@@ -58534,7 +58530,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="379" spans="1:23">
+    <row r="379" spans="1:23" hidden="1">
       <c r="A379" s="5">
         <v>5240</v>
       </c>
@@ -58606,7 +58602,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="380" spans="1:23">
+    <row r="380" spans="1:23" hidden="1">
       <c r="A380" s="5">
         <v>5250</v>
       </c>
@@ -58678,7 +58674,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="381" spans="1:23">
+    <row r="381" spans="1:23" hidden="1">
       <c r="A381" s="5">
         <v>5260</v>
       </c>
@@ -58750,7 +58746,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="382" spans="1:23">
+    <row r="382" spans="1:23" hidden="1">
       <c r="A382" s="5">
         <v>5270</v>
       </c>
@@ -58822,7 +58818,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="383" spans="1:23">
+    <row r="383" spans="1:23" hidden="1">
       <c r="A383" s="5">
         <v>5280</v>
       </c>
@@ -58894,7 +58890,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="384" spans="1:23">
+    <row r="384" spans="1:23" hidden="1">
       <c r="A384" s="5">
         <v>5290</v>
       </c>
@@ -58966,7 +58962,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="385" spans="1:23">
+    <row r="385" spans="1:23" hidden="1">
       <c r="A385" s="5">
         <v>5300</v>
       </c>
@@ -59038,7 +59034,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="386" spans="1:23">
+    <row r="386" spans="1:23" hidden="1">
       <c r="A386" s="5">
         <v>5310</v>
       </c>
@@ -59110,7 +59106,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="387" spans="1:23">
+    <row r="387" spans="1:23" hidden="1">
       <c r="A387" s="5">
         <v>5320</v>
       </c>
@@ -59182,7 +59178,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="388" spans="1:23">
+    <row r="388" spans="1:23" hidden="1">
       <c r="A388" s="5">
         <v>5330</v>
       </c>
@@ -59254,7 +59250,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="389" spans="1:23">
+    <row r="389" spans="1:23" hidden="1">
       <c r="A389" s="5">
         <v>5340</v>
       </c>
@@ -59326,7 +59322,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="390" spans="1:23">
+    <row r="390" spans="1:23" hidden="1">
       <c r="A390" s="5">
         <v>5350</v>
       </c>
@@ -59398,7 +59394,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="391" spans="1:23">
+    <row r="391" spans="1:23" hidden="1">
       <c r="A391" s="5">
         <v>5360</v>
       </c>
@@ -59470,7 +59466,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="392" spans="1:23">
+    <row r="392" spans="1:23" hidden="1">
       <c r="A392" s="5">
         <v>5370</v>
       </c>
@@ -59542,7 +59538,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="393" spans="1:23">
+    <row r="393" spans="1:23" hidden="1">
       <c r="A393" s="5">
         <v>5380</v>
       </c>
@@ -59686,7 +59682,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="395" spans="1:23">
+    <row r="395" spans="1:23" hidden="1">
       <c r="A395" s="5">
         <v>5400</v>
       </c>
@@ -59758,7 +59754,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="396" spans="1:23">
+    <row r="396" spans="1:23" hidden="1">
       <c r="A396" s="5">
         <v>5410</v>
       </c>
@@ -59830,7 +59826,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="397" spans="1:23">
+    <row r="397" spans="1:23" hidden="1">
       <c r="A397" s="5">
         <v>5420</v>
       </c>
@@ -59902,7 +59898,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="398" spans="1:23">
+    <row r="398" spans="1:23" hidden="1">
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="H398" s="8"/>
@@ -59917,7 +59913,7 @@
       <c r="Q398" s="8"/>
       <c r="S398" s="5"/>
     </row>
-    <row r="399" spans="1:23">
+    <row r="399" spans="1:23" hidden="1">
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
       <c r="H399" s="8"/>
@@ -59932,7 +59928,7 @@
       <c r="Q399" s="8"/>
       <c r="S399" s="5"/>
     </row>
-    <row r="400" spans="1:23">
+    <row r="400" spans="1:23" hidden="1">
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="H400" s="8"/>
@@ -59947,7 +59943,7 @@
       <c r="Q400" s="8"/>
       <c r="S400" s="5"/>
     </row>
-    <row r="401" spans="3:20">
+    <row r="401" spans="3:20" hidden="1">
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
       <c r="H401" s="8"/>
@@ -59962,7 +59958,7 @@
       <c r="Q401" s="8"/>
       <c r="S401" s="5"/>
     </row>
-    <row r="402" spans="3:20">
+    <row r="402" spans="3:20" hidden="1">
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
       <c r="H402" s="9"/>
@@ -59977,7 +59973,7 @@
       <c r="Q402" s="9"/>
       <c r="S402" s="5"/>
     </row>
-    <row r="403" spans="3:20">
+    <row r="403" spans="3:20" hidden="1">
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="H403" s="9"/>
@@ -59992,7 +59988,7 @@
       <c r="Q403" s="9"/>
       <c r="S403" s="5"/>
     </row>
-    <row r="404" spans="3:20">
+    <row r="404" spans="3:20" hidden="1">
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="H404" s="9"/>
@@ -60007,7 +60003,7 @@
       <c r="Q404" s="9"/>
       <c r="S404" s="5"/>
     </row>
-    <row r="405" spans="3:20">
+    <row r="405" spans="3:20" hidden="1">
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="H405" s="9"/>
@@ -60021,7 +60017,7 @@
       <c r="P405" s="9"/>
       <c r="Q405" s="9"/>
     </row>
-    <row r="406" spans="3:20">
+    <row r="406" spans="3:20" hidden="1">
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="H406" s="10"/>
@@ -60036,7 +60032,7 @@
       <c r="Q406" s="10"/>
       <c r="S406" s="5"/>
     </row>
-    <row r="407" spans="3:20">
+    <row r="407" spans="3:20" hidden="1">
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="H407" s="10"/>
@@ -60051,7 +60047,7 @@
       <c r="Q407" s="10"/>
       <c r="S407" s="5"/>
     </row>
-    <row r="408" spans="3:20">
+    <row r="408" spans="3:20" hidden="1">
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="H408" s="10"/>
@@ -60066,7 +60062,7 @@
       <c r="Q408" s="10"/>
       <c r="S408" s="5"/>
     </row>
-    <row r="409" spans="3:20">
+    <row r="409" spans="3:20" hidden="1">
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
       <c r="H409" s="10"/>
@@ -60081,7 +60077,7 @@
       <c r="Q409" s="10"/>
       <c r="S409" s="5"/>
     </row>
-    <row r="410" spans="3:20">
+    <row r="410" spans="3:20" hidden="1">
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
       <c r="H410" s="9"/>
@@ -60095,7 +60091,7 @@
       <c r="P410" s="9"/>
       <c r="Q410" s="9"/>
     </row>
-    <row r="411" spans="3:20">
+    <row r="411" spans="3:20" hidden="1">
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
       <c r="H411" s="10"/>
@@ -60109,7 +60105,7 @@
       <c r="P411" s="10"/>
       <c r="Q411" s="10"/>
     </row>
-    <row r="412" spans="3:20">
+    <row r="412" spans="3:20" hidden="1">
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="H412" s="11"/>
@@ -60124,7 +60120,7 @@
       <c r="Q412" s="11"/>
       <c r="S412" s="5"/>
     </row>
-    <row r="413" spans="3:20">
+    <row r="413" spans="3:20" hidden="1">
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="H413" s="11"/>
@@ -60139,7 +60135,7 @@
       <c r="Q413" s="11"/>
       <c r="S413" s="5"/>
     </row>
-    <row r="414" spans="3:20">
+    <row r="414" spans="3:20" hidden="1">
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
       <c r="H414" s="11"/>
@@ -60153,7 +60149,7 @@
       <c r="P414" s="11"/>
       <c r="Q414" s="11"/>
     </row>
-    <row r="415" spans="3:20">
+    <row r="415" spans="3:20" hidden="1">
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
       <c r="H415" s="13"/>
@@ -60169,7 +60165,7 @@
       <c r="S415" s="14"/>
       <c r="T415" s="15"/>
     </row>
-    <row r="416" spans="3:20">
+    <row r="416" spans="3:20" hidden="1">
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="H416" s="16"/>
@@ -60185,7 +60181,7 @@
       <c r="S416" s="5"/>
       <c r="T416" s="15"/>
     </row>
-    <row r="417" spans="3:20">
+    <row r="417" spans="3:20" hidden="1">
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
       <c r="H417" s="16"/>
@@ -60201,7 +60197,7 @@
       <c r="S417" s="5"/>
       <c r="T417" s="15"/>
     </row>
-    <row r="418" spans="3:20">
+    <row r="418" spans="3:20" hidden="1">
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
       <c r="H418" s="13"/>
@@ -60217,7 +60213,7 @@
       <c r="S418" s="14"/>
       <c r="T418" s="15"/>
     </row>
-    <row r="419" spans="3:20">
+    <row r="419" spans="3:20" hidden="1">
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
       <c r="H419" s="16"/>
@@ -60233,7 +60229,7 @@
       <c r="S419" s="5"/>
       <c r="T419" s="15"/>
     </row>
-    <row r="420" spans="3:20">
+    <row r="420" spans="3:20" hidden="1">
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
       <c r="H420" s="16"/>
@@ -60249,7 +60245,7 @@
       <c r="S420" s="5"/>
       <c r="T420" s="15"/>
     </row>
-    <row r="421" spans="3:20">
+    <row r="421" spans="3:20" hidden="1">
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
       <c r="H421" s="13"/>
@@ -60265,7 +60261,7 @@
       <c r="S421" s="14"/>
       <c r="T421" s="15"/>
     </row>
-    <row r="422" spans="3:20">
+    <row r="422" spans="3:20" hidden="1">
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="H422" s="16"/>
@@ -60281,7 +60277,7 @@
       <c r="S422" s="5"/>
       <c r="T422" s="15"/>
     </row>
-    <row r="423" spans="3:20">
+    <row r="423" spans="3:20" hidden="1">
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
       <c r="H423" s="16"/>
@@ -60297,7 +60293,7 @@
       <c r="S423" s="5"/>
       <c r="T423" s="15"/>
     </row>
-    <row r="424" spans="3:20">
+    <row r="424" spans="3:20" hidden="1">
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
       <c r="H424" s="13"/>
@@ -60313,7 +60309,7 @@
       <c r="S424" s="5"/>
       <c r="T424" s="15"/>
     </row>
-    <row r="425" spans="3:20">
+    <row r="425" spans="3:20" hidden="1">
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
       <c r="H425" s="10"/>
@@ -60327,7 +60323,7 @@
       <c r="P425" s="10"/>
       <c r="Q425" s="10"/>
     </row>
-    <row r="426" spans="3:20">
+    <row r="426" spans="3:20" hidden="1">
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
       <c r="H426" s="11"/>
@@ -60342,7 +60338,7 @@
       <c r="Q426" s="11"/>
       <c r="S426" s="5"/>
     </row>
-    <row r="427" spans="3:20">
+    <row r="427" spans="3:20" hidden="1">
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
       <c r="H427" s="11"/>
@@ -60357,7 +60353,7 @@
       <c r="Q427" s="11"/>
       <c r="S427" s="5"/>
     </row>
-    <row r="428" spans="3:20">
+    <row r="428" spans="3:20" hidden="1">
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
       <c r="H428" s="11"/>
@@ -60372,7 +60368,7 @@
       <c r="Q428" s="11"/>
       <c r="S428" s="5"/>
     </row>
-    <row r="429" spans="3:20">
+    <row r="429" spans="3:20" hidden="1">
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
       <c r="H429" s="11"/>
@@ -60387,7 +60383,7 @@
       <c r="Q429" s="11"/>
       <c r="S429" s="5"/>
     </row>
-    <row r="430" spans="3:20">
+    <row r="430" spans="3:20" hidden="1">
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
       <c r="H430" s="10"/>
@@ -60401,7 +60397,7 @@
       <c r="P430" s="10"/>
       <c r="Q430" s="10"/>
     </row>
-    <row r="431" spans="3:20">
+    <row r="431" spans="3:20" hidden="1">
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
       <c r="H431" s="17"/>
@@ -60417,7 +60413,7 @@
       <c r="S431" s="14"/>
       <c r="T431" s="15"/>
     </row>
-    <row r="432" spans="3:20">
+    <row r="432" spans="3:20" hidden="1">
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
       <c r="H432" s="13"/>
@@ -60433,7 +60429,7 @@
       <c r="S432" s="5"/>
       <c r="T432" s="15"/>
     </row>
-    <row r="433" spans="3:20">
+    <row r="433" spans="3:20" hidden="1">
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
       <c r="H433" s="13"/>
@@ -60449,7 +60445,7 @@
       <c r="S433" s="5"/>
       <c r="T433" s="15"/>
     </row>
-    <row r="434" spans="3:20">
+    <row r="434" spans="3:20" hidden="1">
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
       <c r="H434" s="17"/>
@@ -60465,7 +60461,7 @@
       <c r="S434" s="14"/>
       <c r="T434" s="15"/>
     </row>
-    <row r="435" spans="3:20">
+    <row r="435" spans="3:20" hidden="1">
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
       <c r="H435" s="13"/>
@@ -60481,7 +60477,7 @@
       <c r="S435" s="5"/>
       <c r="T435" s="15"/>
     </row>
-    <row r="436" spans="3:20">
+    <row r="436" spans="3:20" hidden="1">
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
       <c r="H436" s="13"/>
@@ -60497,7 +60493,7 @@
       <c r="S436" s="5"/>
       <c r="T436" s="15"/>
     </row>
-    <row r="437" spans="3:20">
+    <row r="437" spans="3:20" hidden="1">
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
       <c r="H437" s="17"/>
@@ -60513,7 +60509,7 @@
       <c r="S437" s="14"/>
       <c r="T437" s="15"/>
     </row>
-    <row r="438" spans="3:20">
+    <row r="438" spans="3:20" hidden="1">
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
       <c r="H438" s="13"/>
@@ -60529,7 +60525,7 @@
       <c r="S438" s="5"/>
       <c r="T438" s="15"/>
     </row>
-    <row r="439" spans="3:20">
+    <row r="439" spans="3:20" hidden="1">
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
       <c r="H439" s="13"/>
@@ -60545,7 +60541,7 @@
       <c r="S439" s="5"/>
       <c r="T439" s="15"/>
     </row>
-    <row r="440" spans="3:20">
+    <row r="440" spans="3:20" hidden="1">
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
       <c r="H440" s="17"/>
@@ -60561,7 +60557,7 @@
       <c r="S440" s="5"/>
       <c r="T440" s="15"/>
     </row>
-    <row r="441" spans="3:20">
+    <row r="441" spans="3:20" hidden="1">
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
       <c r="H441" s="9"/>
@@ -60575,7 +60571,7 @@
       <c r="P441" s="9"/>
       <c r="Q441" s="9"/>
     </row>
-    <row r="442" spans="3:20">
+    <row r="442" spans="3:20" hidden="1">
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
       <c r="H442" s="10"/>
@@ -60590,7 +60586,7 @@
       <c r="Q442" s="10"/>
       <c r="S442" s="5"/>
     </row>
-    <row r="443" spans="3:20">
+    <row r="443" spans="3:20" hidden="1">
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
       <c r="H443" s="10"/>
@@ -60605,7 +60601,7 @@
       <c r="Q443" s="10"/>
       <c r="S443" s="5"/>
     </row>
-    <row r="444" spans="3:20">
+    <row r="444" spans="3:20" hidden="1">
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
       <c r="H444" s="9"/>
@@ -60620,7 +60616,7 @@
       <c r="Q444" s="9"/>
       <c r="S444" s="5"/>
     </row>
-    <row r="445" spans="3:20">
+    <row r="445" spans="3:20" hidden="1">
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
       <c r="H445" s="8"/>
@@ -60634,7 +60630,7 @@
       <c r="P445" s="8"/>
       <c r="Q445" s="8"/>
     </row>
-    <row r="446" spans="3:20">
+    <row r="446" spans="3:20" hidden="1">
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
       <c r="H446" s="9"/>
@@ -60649,7 +60645,7 @@
       <c r="Q446" s="9"/>
       <c r="S446" s="5"/>
     </row>
-    <row r="447" spans="3:20">
+    <row r="447" spans="3:20" hidden="1">
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
       <c r="H447" s="9"/>
@@ -60664,7 +60660,7 @@
       <c r="Q447" s="9"/>
       <c r="S447" s="5"/>
     </row>
-    <row r="448" spans="3:20">
+    <row r="448" spans="3:20" hidden="1">
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
       <c r="H448" s="9"/>
@@ -60679,7 +60675,7 @@
       <c r="Q448" s="9"/>
       <c r="S448" s="5"/>
     </row>
-    <row r="449" spans="3:19">
+    <row r="449" spans="3:19" hidden="1">
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
       <c r="H449" s="9"/>
@@ -60696,6 +60692,38 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W449" xr:uid="{C94E9C93-11BC-4CF3-8414-ACFE3535A1A8}">
+    <filterColumn colId="19">
+      <filters>
+        <filter val="Accounting Method End Date"/>
+        <filter val="Accounting Method Start Date"/>
+        <filter val="Acknowledgement Date"/>
+        <filter val="Confirmation Date"/>
+        <filter val="Creation Date"/>
+        <filter val="Date of Exchange Rate"/>
+        <filter val="Date Posted"/>
+        <filter val="Date Shipped/Received"/>
+        <filter val="Document Date"/>
+        <filter val="End Date"/>
+        <filter val="End Date of Repeating Entry"/>
+        <filter val="Entry Date"/>
+        <filter val="External Authority Verification Date"/>
+        <filter val="Last Date Repeat"/>
+        <filter val="Maturity Date or Date Due"/>
+        <filter val="Next Date Repeat"/>
+        <filter val="Original Exchange Rate Date"/>
+        <filter val="Originating Document Date"/>
+        <filter val="Period Closed Date"/>
+        <filter val="Period End Date"/>
+        <filter val="Period Start Date"/>
+        <filter val="Posting Date"/>
+        <filter val="Received Date"/>
+        <filter val="Reversing Date"/>
+        <filter val="Serial Lot Warranty End Date"/>
+        <filter val="Serial Lot Warranty Start Date"/>
+        <filter val="Start Date"/>
+        <filter val="Tax Exchange Rate Date"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W449">
       <sortCondition ref="A1:A449"/>
     </sortState>

--- a/data/base/xBRL_GL_binding.xlsx
+++ b/data/base/xBRL_GL_binding.xlsx
@@ -8,29 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\GitHub\Japan_core\data\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB87E9-B857-40DC-8DAA-E5C3FA09E901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E68BF23-AAD5-4171-93DE-47B7611727E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="570" windowWidth="23865" windowHeight="14280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="1065" windowWidth="27585" windowHeight="14280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adcs GL" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
-    <sheet name="xBRL_GL_binding (2)" sheetId="6" r:id="rId3"/>
-    <sheet name="xBRL_GL_binding 0" sheetId="2" r:id="rId4"/>
-    <sheet name="EPSON binding" sheetId="4" r:id="rId5"/>
-    <sheet name="ADC GL" sheetId="1" r:id="rId6"/>
-    <sheet name="xbrl-gl" sheetId="3" r:id="rId7"/>
+    <sheet name="xBRL_GL_binding" sheetId="8" r:id="rId2"/>
+    <sheet name="XBRL-GL2.0a_binding" sheetId="7" r:id="rId3"/>
+    <sheet name="xBRL_GL_binding (2)" sheetId="6" r:id="rId4"/>
+    <sheet name="xBRL_GL_binding 0" sheetId="2" r:id="rId5"/>
+    <sheet name="EPSON binding" sheetId="4" r:id="rId6"/>
+    <sheet name="ADC GL" sheetId="1" r:id="rId7"/>
+    <sheet name="xbrl-gl" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'adcs GL'!$A$1:$K$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'EPSON binding'!$J$1:$X$86</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'xBRL_GL_binding (2)'!$A$1:$N$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'xBRL_GL_binding 0'!$A$1:$O$68</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'xbrl-gl'!$A$1:$W$449</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'EPSON binding'!$J$1:$X$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">xBRL_GL_binding!$A$1:$N$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'xBRL_GL_binding (2)'!$A$1:$N$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'xBRL_GL_binding 0'!$A$1:$O$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'xbrl-gl'!$A$1:$W$449</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'adcs GL'!$B$1:$H$79</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'EPSON binding'!$A$1:$F$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'xbrl-gl'!$B:$T</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'xbrl-gl'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'EPSON binding'!$A$1:$F$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'xbrl-gl'!$B:$T</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'xbrl-gl'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8407" uniqueCount="3582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8671" uniqueCount="3610">
   <si>
     <t>entries</t>
   </si>
@@ -10837,6 +10839,90 @@
   </si>
   <si>
     <t>XBRL GL</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:documentInfo/gl-cor:uniqueID</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:sourceJournalID</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:documentInfo/gl-bus:sourceApplication</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-bus:sourceJournalDescription</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-bus:entryOrigin</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:documentInfo/gl-bus:creator</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:enteredDate</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:account/gl-cor:accountType</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:detailComment</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:debitCreditCode</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:account</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:account/gl-cor:accountMainID</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:account/gl-cor:accountMainDescription</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:xbrlInfo/gl-cor:xbrlElement</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:amount</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-muc:amountCurrency</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:postingDate</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:account/gl-cor:accountSub</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:account/gl-cor:accountSub/gl-cor:accountSubType</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:account/gl-cor:accountSub/gl-cor:accountSubID</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:account/gl-cor:accountSub/gl-cor:accountSubDescription</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:identifierReference</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:identifierReference/gl-cor:identifierType</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:identifierReference/gl-cor:identifierCode</t>
+  </si>
+  <si>
+    <t>/xbrli:xbrl/gl-cor:accountingEntries/gl-cor:entryHeader/gl-cor:entryDetail/gl-cor:identifierReference/gl-cor:identifierDescription</t>
   </si>
 </sst>
 </file>
@@ -10966,7 +11052,7 @@
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -11134,6 +11220,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -11141,7 +11249,119 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2" xr:uid="{EA35A6C4-D566-46C3-8A53-55660A45E06F}"/>
   </cellStyles>
-  <dxfs count="141">
+  <dxfs count="157">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -12456,10 +12676,10 @@
   <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12471,7 +12691,8 @@
     <col min="5" max="5" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="25" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="11" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1"/>
+    <col min="9" max="11" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -14923,92 +15144,92 @@
   <autoFilter ref="A1:K79" xr:uid="{66688DA9-C97B-4A57-8186-455691B62EFC}"/>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="A1:K1048576">
-    <cfRule type="expression" dxfId="140" priority="16">
+    <cfRule type="expression" dxfId="156" priority="16">
       <formula>"G"=MID($B1,6,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="expression" dxfId="139" priority="6">
+    <cfRule type="expression" dxfId="155" priority="6">
       <formula>"isa"=$F68</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="7">
+    <cfRule type="expression" dxfId="154" priority="7">
       <formula>OR("ASBIE"=MID($A68,1,5),"ASCC"=MID($A68,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="8">
+    <cfRule type="expression" dxfId="153" priority="8">
       <formula>OR("RFBIE"=MID($A68,1,5),"RFCC"=MID($A68,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="9">
+    <cfRule type="expression" dxfId="152" priority="9">
       <formula>OR("ABIE"=MID($A68,1,4),"ACC"=MID($A68,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="10">
+    <cfRule type="expression" dxfId="151" priority="10">
       <formula>OR("PKBIE"=MID($A68,1,5),"PKCC"=MID($A68,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:F78">
-    <cfRule type="expression" dxfId="134" priority="11">
+    <cfRule type="expression" dxfId="150" priority="11">
       <formula>"isa"=$F70</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="12">
+    <cfRule type="expression" dxfId="149" priority="12">
       <formula>OR("ASBIE"=MID($A70,1,5),"ASCC"=MID($A70,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="13">
+    <cfRule type="expression" dxfId="148" priority="13">
       <formula>OR("RFBIE"=MID($A70,1,5),"RFCC"=MID($A70,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="14">
+    <cfRule type="expression" dxfId="147" priority="14">
       <formula>OR("ABIE"=MID($A70,1,4),"ACC"=MID($A70,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="15">
+    <cfRule type="expression" dxfId="146" priority="15">
       <formula>OR("PKBIE"=MID($A70,1,5),"PKCC"=MID($A70,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="129" priority="17">
+    <cfRule type="expression" dxfId="145" priority="17">
       <formula>"isa"=$D74</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="18">
+    <cfRule type="expression" dxfId="144" priority="18">
       <formula>OR("ASBIE"=MID($A74,1,5),"ASCC"=MID($A74,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="19">
+    <cfRule type="expression" dxfId="143" priority="19">
       <formula>OR("RFBIE"=MID($A74,1,5),"RFCC"=MID($A74,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="20">
+    <cfRule type="expression" dxfId="142" priority="20">
       <formula>OR("ABIE"=MID($A74,1,4),"ACC"=MID($A74,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="21">
+    <cfRule type="expression" dxfId="141" priority="21">
       <formula>OR("PKBIE"=MID($A74,1,5),"PKCC"=MID($A74,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75:J79 G75:H79 D75:D79">
-    <cfRule type="expression" dxfId="124" priority="22">
+    <cfRule type="expression" dxfId="140" priority="22">
       <formula>"isa"=$D75</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="23">
+    <cfRule type="expression" dxfId="139" priority="23">
       <formula>OR("ASBIE"=MID($A76,1,5),"ASCC"=MID($A76,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="24">
+    <cfRule type="expression" dxfId="138" priority="24">
       <formula>OR("RFBIE"=MID($A76,1,5),"RFCC"=MID($A76,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="25">
+    <cfRule type="expression" dxfId="137" priority="25">
       <formula>OR("ABIE"=MID($A76,1,4),"ACC"=MID($A76,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="26">
+    <cfRule type="expression" dxfId="136" priority="26">
       <formula>OR("PKBIE"=MID($A76,1,5),"PKCC"=MID($A76,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="expression" dxfId="119" priority="1">
+    <cfRule type="expression" dxfId="135" priority="1">
       <formula>"isa"=$F69</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="2">
+    <cfRule type="expression" dxfId="134" priority="2">
       <formula>OR("ASBIE"=MID($A69,1,5),"ASCC"=MID($A69,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="3">
+    <cfRule type="expression" dxfId="133" priority="3">
       <formula>OR("RFBIE"=MID($A69,1,5),"RFCC"=MID($A69,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="4">
+    <cfRule type="expression" dxfId="132" priority="4">
       <formula>OR("ABIE"=MID($A69,1,4),"ACC"=MID($A69,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="5">
+    <cfRule type="expression" dxfId="131" priority="5">
       <formula>OR("PKBIE"=MID($A69,1,5),"PKCC"=MID($A69,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15018,11 +15239,1666 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7137F2-DED8-46CF-8CAE-49815F245374}">
+  <dimension ref="A1:P79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" style="58" customWidth="1"/>
+    <col min="7" max="7" width="6" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="58" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="58" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="58" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="58" customWidth="1"/>
+    <col min="13" max="13" width="137.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="58" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="58" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>3577</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>3578</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>3579</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>3221</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>3576</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>3580</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="57">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="59">
+        <v>0</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>3581</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="L2" s="58">
+        <v>1</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>3582</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="60"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="57">
+        <v>1010</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="59">
+        <v>1</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="L3" s="58">
+        <v>4</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>3583</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="60"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="57">
+        <v>1090</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="59">
+        <v>1</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>2974</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="58"/>
+      <c r="J4" s="58" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>1506</v>
+      </c>
+      <c r="L4" s="58">
+        <v>26</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>3584</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="60"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="57">
+        <v>1100</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="59">
+        <v>2</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L5" s="58">
+        <v>28</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>3585</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="60"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="57">
+        <v>1110</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="59">
+        <v>2</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>496</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>497</v>
+      </c>
+      <c r="L6" s="58">
+        <v>5</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>3586</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="60"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="57">
+        <v>1120</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="59">
+        <v>2</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>1555</v>
+      </c>
+      <c r="L7" s="58">
+        <v>29</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>3587</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="60"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="57">
+        <v>1130</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="59">
+        <v>2</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L8" s="58">
+        <v>27</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>3588</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="60"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="57">
+        <v>1140</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="59">
+        <v>2</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="J9" s="58" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>1506</v>
+      </c>
+      <c r="L9" s="58">
+        <v>24</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>3584</v>
+      </c>
+      <c r="N9" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="60"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="57">
+        <v>1150</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="59">
+        <v>3</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="J10" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="L10" s="58">
+        <v>8</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>3589</v>
+      </c>
+      <c r="N10" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="60"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="57">
+        <v>1160</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="59">
+        <v>3</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>1533</v>
+      </c>
+      <c r="K11" s="58" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L11" s="58">
+        <v>25</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>3590</v>
+      </c>
+      <c r="N11" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="60"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="57">
+        <v>1240</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="59">
+        <v>1</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="58"/>
+      <c r="J12" s="58" t="s">
+        <v>1771</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>1772</v>
+      </c>
+      <c r="L12" s="58">
+        <v>32</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>3591</v>
+      </c>
+      <c r="N12" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="60"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="57">
+        <v>1270</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="59">
+        <v>2</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="58"/>
+      <c r="J13" s="58" t="s">
+        <v>1845</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>1846</v>
+      </c>
+      <c r="L13" s="58">
+        <v>36</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>3592</v>
+      </c>
+      <c r="N13" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="60"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="57">
+        <v>1280</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="59">
+        <v>2</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>2300</v>
+      </c>
+      <c r="K14" s="58" t="s">
+        <v>2301</v>
+      </c>
+      <c r="L14" s="58">
+        <v>55</v>
+      </c>
+      <c r="M14" s="58" t="s">
+        <v>3593</v>
+      </c>
+      <c r="N14" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="60"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="57">
+        <v>1290</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="59">
+        <v>2</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="58" t="s">
+        <v>2059</v>
+      </c>
+      <c r="K15" s="58" t="s">
+        <v>2060</v>
+      </c>
+      <c r="L15" s="58">
+        <v>41</v>
+      </c>
+      <c r="M15" s="58" t="s">
+        <v>3594</v>
+      </c>
+      <c r="N15" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="60"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="57">
+        <v>1430</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="59">
+        <v>2</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>2972</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="G16" s="58"/>
+      <c r="J16" s="58" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K16" s="58" t="s">
+        <v>1790</v>
+      </c>
+      <c r="L16" s="58">
+        <v>33</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>3595</v>
+      </c>
+      <c r="N16" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="60"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="57">
+        <v>1440</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="59">
+        <v>3</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>1796</v>
+      </c>
+      <c r="K17" s="58" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L17" s="58">
+        <v>34</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>3596</v>
+      </c>
+      <c r="N17" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="60"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="57">
+        <v>1450</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="59">
+        <v>3</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>1803</v>
+      </c>
+      <c r="K18" s="58" t="s">
+        <v>1804</v>
+      </c>
+      <c r="L18" s="58">
+        <v>35</v>
+      </c>
+      <c r="M18" s="58" t="s">
+        <v>3597</v>
+      </c>
+      <c r="N18" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="60"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="57">
+        <v>1460</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="59">
+        <v>3</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="58">
+        <v>54</v>
+      </c>
+      <c r="M19" s="58" t="s">
+        <v>3598</v>
+      </c>
+      <c r="N19" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="60"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="57">
+        <v>1470</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="59">
+        <v>2</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="58"/>
+      <c r="J20" s="58" t="s">
+        <v>1771</v>
+      </c>
+      <c r="K20" s="58" t="s">
+        <v>1772</v>
+      </c>
+      <c r="L20" s="58">
+        <v>42</v>
+      </c>
+      <c r="M20" s="58" t="s">
+        <v>3591</v>
+      </c>
+      <c r="N20" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="60"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="57">
+        <v>1480</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="59">
+        <v>3</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>1949</v>
+      </c>
+      <c r="K21" s="58" t="s">
+        <v>1950</v>
+      </c>
+      <c r="L21" s="58">
+        <v>43</v>
+      </c>
+      <c r="M21" s="58" t="s">
+        <v>3599</v>
+      </c>
+      <c r="N21" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" s="60"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="57">
+        <v>1490</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="59">
+        <v>3</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="58"/>
+      <c r="J22" s="58" t="s">
+        <v>1955</v>
+      </c>
+      <c r="K22" s="58" t="s">
+        <v>1956</v>
+      </c>
+      <c r="L22" s="58">
+        <v>44</v>
+      </c>
+      <c r="M22" s="58" t="s">
+        <v>3600</v>
+      </c>
+      <c r="N22" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="60"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="57">
+        <v>1560</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="59">
+        <v>2</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="58"/>
+      <c r="J23" s="58" t="s">
+        <v>1771</v>
+      </c>
+      <c r="K23" s="58" t="s">
+        <v>1772</v>
+      </c>
+      <c r="L23" s="58">
+        <v>45</v>
+      </c>
+      <c r="M23" s="58" t="s">
+        <v>3591</v>
+      </c>
+      <c r="N23" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="60"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="57">
+        <v>1580</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="59">
+        <v>3</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>2066</v>
+      </c>
+      <c r="K24" s="58" t="s">
+        <v>2067</v>
+      </c>
+      <c r="L24" s="58">
+        <v>46</v>
+      </c>
+      <c r="M24" s="58" t="s">
+        <v>3601</v>
+      </c>
+      <c r="N24" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="60"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="57">
+        <v>1590</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="59">
+        <v>2</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" s="58"/>
+      <c r="J25" s="58" t="s">
+        <v>1882</v>
+      </c>
+      <c r="K25" s="58" t="s">
+        <v>1883</v>
+      </c>
+      <c r="L25" s="58">
+        <v>37</v>
+      </c>
+      <c r="M25" s="58" t="s">
+        <v>3602</v>
+      </c>
+      <c r="N25" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="P25" s="60"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="57">
+        <v>1600</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="59">
+        <v>3</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="58" t="s">
+        <v>1903</v>
+      </c>
+      <c r="K26" s="58" t="s">
+        <v>1904</v>
+      </c>
+      <c r="L26" s="58">
+        <v>40</v>
+      </c>
+      <c r="M26" s="58" t="s">
+        <v>3603</v>
+      </c>
+      <c r="N26" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" s="60"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="57">
+        <v>1610</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="59">
+        <v>3</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="58" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K27" s="58" t="s">
+        <v>1897</v>
+      </c>
+      <c r="L27" s="58">
+        <v>39</v>
+      </c>
+      <c r="M27" s="58" t="s">
+        <v>3604</v>
+      </c>
+      <c r="N27" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" s="60"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="57">
+        <v>1620</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="59">
+        <v>3</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>294</v>
+      </c>
+      <c r="F28" s="60"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="58" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K28" s="58" t="s">
+        <v>1890</v>
+      </c>
+      <c r="L28" s="58">
+        <v>38</v>
+      </c>
+      <c r="M28" s="58" t="s">
+        <v>3605</v>
+      </c>
+      <c r="N28" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28" s="60"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="57">
+        <v>1630</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="59">
+        <v>2</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" s="58"/>
+      <c r="L29" s="58">
+        <v>47</v>
+      </c>
+      <c r="M29" s="58" t="s">
+        <v>3606</v>
+      </c>
+      <c r="N29" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="60"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="57">
+        <v>1640</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="59">
+        <v>3</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>2975</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="58">
+        <v>50</v>
+      </c>
+      <c r="M30" s="58" t="s">
+        <v>3607</v>
+      </c>
+      <c r="N30" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P30" s="60"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="57">
+        <v>1650</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="59">
+        <v>3</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" s="58"/>
+      <c r="L31" s="58">
+        <v>48</v>
+      </c>
+      <c r="M31" s="58" t="s">
+        <v>3608</v>
+      </c>
+      <c r="N31" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" s="60"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="57">
+        <v>1660</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="59">
+        <v>3</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="58">
+        <v>49</v>
+      </c>
+      <c r="M32" s="58" t="s">
+        <v>3609</v>
+      </c>
+      <c r="N32" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" s="60"/>
+    </row>
+    <row r="33" spans="3:16">
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="58"/>
+      <c r="N33" s="59"/>
+      <c r="P33" s="60"/>
+    </row>
+    <row r="34" spans="3:16">
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="58"/>
+      <c r="N34" s="59"/>
+      <c r="P34" s="60"/>
+    </row>
+    <row r="35" spans="3:16">
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="58"/>
+      <c r="N35" s="59"/>
+      <c r="P35" s="60"/>
+    </row>
+    <row r="36" spans="3:16">
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="58"/>
+      <c r="N36" s="59"/>
+      <c r="P36" s="60"/>
+    </row>
+    <row r="37" spans="3:16">
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="58"/>
+      <c r="N37" s="59"/>
+      <c r="P37" s="60"/>
+    </row>
+    <row r="38" spans="3:16">
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="58"/>
+      <c r="N38" s="59"/>
+      <c r="P38" s="60"/>
+    </row>
+    <row r="39" spans="3:16">
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="58"/>
+      <c r="N39" s="59"/>
+      <c r="P39" s="60"/>
+    </row>
+    <row r="40" spans="3:16">
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="58"/>
+      <c r="N40" s="59"/>
+      <c r="P40" s="60"/>
+    </row>
+    <row r="41" spans="3:16">
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="58"/>
+      <c r="N41" s="59"/>
+      <c r="P41" s="60"/>
+    </row>
+    <row r="42" spans="3:16">
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="58"/>
+      <c r="N42" s="59"/>
+      <c r="P42" s="60"/>
+    </row>
+    <row r="43" spans="3:16">
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="58"/>
+      <c r="N43" s="59"/>
+      <c r="P43" s="60"/>
+    </row>
+    <row r="44" spans="3:16">
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="58"/>
+      <c r="N44" s="59"/>
+      <c r="P44" s="60"/>
+    </row>
+    <row r="45" spans="3:16">
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="58"/>
+      <c r="N45" s="59"/>
+      <c r="P45" s="60"/>
+    </row>
+    <row r="46" spans="3:16">
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="58"/>
+      <c r="N46" s="59"/>
+      <c r="P46" s="60"/>
+    </row>
+    <row r="47" spans="3:16">
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="58"/>
+      <c r="N47" s="59"/>
+      <c r="P47" s="60"/>
+    </row>
+    <row r="48" spans="3:16">
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="58"/>
+      <c r="N48" s="59"/>
+      <c r="P48" s="60"/>
+    </row>
+    <row r="49" spans="3:16">
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="58"/>
+      <c r="N49" s="59"/>
+      <c r="P49" s="60"/>
+    </row>
+    <row r="50" spans="3:16">
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="58"/>
+      <c r="N50" s="59"/>
+      <c r="P50" s="60"/>
+    </row>
+    <row r="51" spans="3:16">
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="58"/>
+      <c r="N51" s="59"/>
+      <c r="P51" s="60"/>
+    </row>
+    <row r="52" spans="3:16">
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="58"/>
+      <c r="N52" s="59"/>
+      <c r="P52" s="60"/>
+    </row>
+    <row r="53" spans="3:16">
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="58"/>
+      <c r="N53" s="59"/>
+      <c r="P53" s="60"/>
+    </row>
+    <row r="54" spans="3:16">
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="58"/>
+      <c r="N54" s="59"/>
+      <c r="P54" s="60"/>
+    </row>
+    <row r="55" spans="3:16">
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="58"/>
+      <c r="N55" s="59"/>
+      <c r="P55" s="60"/>
+    </row>
+    <row r="56" spans="3:16">
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="58"/>
+      <c r="N56" s="59"/>
+      <c r="P56" s="60"/>
+    </row>
+    <row r="57" spans="3:16">
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="58"/>
+      <c r="N57" s="59"/>
+      <c r="P57" s="60"/>
+    </row>
+    <row r="58" spans="3:16">
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="58"/>
+      <c r="N58" s="59"/>
+      <c r="P58" s="60"/>
+    </row>
+    <row r="59" spans="3:16">
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="58"/>
+      <c r="N59" s="59"/>
+      <c r="P59" s="60"/>
+    </row>
+    <row r="60" spans="3:16">
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="58"/>
+      <c r="N60" s="59"/>
+      <c r="P60" s="60"/>
+    </row>
+    <row r="61" spans="3:16">
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="58"/>
+      <c r="N61" s="59"/>
+      <c r="P61" s="60"/>
+    </row>
+    <row r="62" spans="3:16">
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="58"/>
+      <c r="N62" s="59"/>
+      <c r="P62" s="60"/>
+    </row>
+    <row r="63" spans="3:16">
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="58"/>
+      <c r="N63" s="59"/>
+      <c r="P63" s="60"/>
+    </row>
+    <row r="64" spans="3:16">
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="58"/>
+      <c r="N64" s="59"/>
+      <c r="P64" s="60"/>
+    </row>
+    <row r="65" spans="2:16">
+      <c r="G65" s="58"/>
+      <c r="N65" s="57"/>
+      <c r="P65" s="60"/>
+    </row>
+    <row r="66" spans="2:16">
+      <c r="G66" s="58"/>
+      <c r="N66" s="57"/>
+      <c r="P66" s="60"/>
+    </row>
+    <row r="67" spans="2:16">
+      <c r="G67" s="58"/>
+      <c r="N67" s="57"/>
+      <c r="P67" s="60"/>
+    </row>
+    <row r="68" spans="2:16">
+      <c r="G68" s="58"/>
+      <c r="N68" s="57"/>
+      <c r="P68" s="60"/>
+    </row>
+    <row r="69" spans="2:16">
+      <c r="C69" s="61"/>
+      <c r="E69" s="62"/>
+      <c r="G69" s="58"/>
+      <c r="P69" s="60"/>
+    </row>
+    <row r="70" spans="2:16">
+      <c r="C70" s="61"/>
+      <c r="E70" s="62"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="P70" s="60"/>
+    </row>
+    <row r="71" spans="2:16">
+      <c r="C71" s="61"/>
+      <c r="E71" s="62"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="P71" s="60"/>
+    </row>
+    <row r="72" spans="2:16">
+      <c r="C72" s="61"/>
+      <c r="E72" s="62"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="P72" s="60"/>
+    </row>
+    <row r="73" spans="2:16">
+      <c r="C73" s="61"/>
+      <c r="E73" s="62"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="P73" s="60"/>
+    </row>
+    <row r="75" spans="2:16">
+      <c r="B75" s="63"/>
+    </row>
+    <row r="76" spans="2:16">
+      <c r="B76" s="64"/>
+    </row>
+    <row r="77" spans="2:16">
+      <c r="B77" s="63"/>
+    </row>
+    <row r="78" spans="2:16">
+      <c r="B78" s="63"/>
+    </row>
+    <row r="79" spans="2:16">
+      <c r="B79" s="63"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:D64 P2:R73">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>"PKBIE"=MID($E2,1,5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>"RFBIE"=$E2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>"ASBIE"=$E2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>"ABIE"=$E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:G64">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>"PKBIE"=MID($E2,1,5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>"RFBIE"=$E2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>"ASBIE"=$E2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>"ABIE"=$E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:G64">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>"PKBIE"=MID($E2,1,5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>"RFBIE"=$E2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>"ASBIE"=$E2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>"ABIE"=$E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N64">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>"PKBIE"=MID($E2,1,5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>"RFBIE"=$E2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>"ASBIE"=$E2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>"ABIE"=$E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEA786B-FF13-46EE-AEE9-64FD8E05A2F9}">
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="N32" sqref="A1:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -16256,58 +18132,58 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="C2:D28">
-    <cfRule type="expression" dxfId="114" priority="13">
+    <cfRule type="expression" dxfId="130" priority="13">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="14">
+    <cfRule type="expression" dxfId="129" priority="14">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="15">
+    <cfRule type="expression" dxfId="128" priority="15">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="16">
+    <cfRule type="expression" dxfId="127" priority="16">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G28">
-    <cfRule type="expression" dxfId="110" priority="9">
+    <cfRule type="expression" dxfId="126" priority="9">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="10">
+    <cfRule type="expression" dxfId="125" priority="10">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="11">
+    <cfRule type="expression" dxfId="124" priority="11">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="12">
+    <cfRule type="expression" dxfId="123" priority="12">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:G28">
-    <cfRule type="expression" dxfId="106" priority="5">
+    <cfRule type="expression" dxfId="122" priority="5">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="6">
+    <cfRule type="expression" dxfId="121" priority="6">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="7">
+    <cfRule type="expression" dxfId="120" priority="7">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="8">
+    <cfRule type="expression" dxfId="119" priority="8">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N28">
-    <cfRule type="expression" dxfId="102" priority="1">
+    <cfRule type="expression" dxfId="118" priority="1">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="2">
+    <cfRule type="expression" dxfId="117" priority="2">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="3">
+    <cfRule type="expression" dxfId="116" priority="3">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="4">
+    <cfRule type="expression" dxfId="115" priority="4">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16315,14 +18191,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB21B12-8402-441D-B83D-93C41D946511}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N68" sqref="A1:N68"/>
+      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -16338,7 +18214,7 @@
     <col min="10" max="10" width="27.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="43.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="5.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -20119,58 +21995,58 @@
   </autoFilter>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="C2:D64 P2:R73">
-    <cfRule type="expression" dxfId="98" priority="13">
+    <cfRule type="expression" dxfId="114" priority="13">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="14">
+    <cfRule type="expression" dxfId="113" priority="14">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="15">
+    <cfRule type="expression" dxfId="112" priority="15">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="16">
+    <cfRule type="expression" dxfId="111" priority="16">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G64">
-    <cfRule type="expression" dxfId="94" priority="9">
+    <cfRule type="expression" dxfId="110" priority="9">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="10">
+    <cfRule type="expression" dxfId="109" priority="10">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="11">
+    <cfRule type="expression" dxfId="108" priority="11">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="12">
+    <cfRule type="expression" dxfId="107" priority="12">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:G64">
-    <cfRule type="expression" dxfId="90" priority="5">
+    <cfRule type="expression" dxfId="106" priority="5">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="6">
+    <cfRule type="expression" dxfId="105" priority="6">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="7">
+    <cfRule type="expression" dxfId="104" priority="7">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="8">
+    <cfRule type="expression" dxfId="103" priority="8">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N64">
-    <cfRule type="expression" dxfId="86" priority="1">
+    <cfRule type="expression" dxfId="102" priority="1">
       <formula>"PKBIE"=MID($E2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="2">
+    <cfRule type="expression" dxfId="101" priority="2">
       <formula>"RFBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="3">
+    <cfRule type="expression" dxfId="100" priority="3">
       <formula>"ASBIE"=$E2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="4">
+    <cfRule type="expression" dxfId="99" priority="4">
       <formula>"ABIE"=$E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20179,13 +22055,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488FC503-D7A0-4C08-966A-339B8ED61CA2}">
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L76" sqref="L76"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -23895,58 +25771,58 @@
   <autoFilter ref="A1:Q68" xr:uid="{488FC503-D7A0-4C08-966A-339B8ED61CA2}"/>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="D2:F2 D3:E64 F3:F73">
-    <cfRule type="expression" dxfId="82" priority="13">
+    <cfRule type="expression" dxfId="98" priority="13">
       <formula>"PKBIE"=MID($G2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="14">
+    <cfRule type="expression" dxfId="97" priority="14">
       <formula>"RFBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="15">
+    <cfRule type="expression" dxfId="96" priority="15">
       <formula>"ASBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="16">
+    <cfRule type="expression" dxfId="95" priority="16">
       <formula>"ABIE"=$G2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P64">
-    <cfRule type="expression" dxfId="78" priority="9">
+    <cfRule type="expression" dxfId="94" priority="9">
       <formula>"PKBIE"=MID($G2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="10">
+    <cfRule type="expression" dxfId="93" priority="10">
       <formula>"RFBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="11">
+    <cfRule type="expression" dxfId="92" priority="11">
       <formula>"ASBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="12">
+    <cfRule type="expression" dxfId="91" priority="12">
       <formula>"ABIE"=$G2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G64">
-    <cfRule type="expression" dxfId="74" priority="5">
+    <cfRule type="expression" dxfId="90" priority="5">
       <formula>"PKBIE"=MID($G2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="6">
+    <cfRule type="expression" dxfId="89" priority="6">
       <formula>"RFBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="7">
+    <cfRule type="expression" dxfId="88" priority="7">
       <formula>"ASBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="8">
+    <cfRule type="expression" dxfId="87" priority="8">
       <formula>"ABIE"=$G2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O64">
-    <cfRule type="expression" dxfId="70" priority="1">
+    <cfRule type="expression" dxfId="86" priority="1">
       <formula>"PKBIE"=MID($G2,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule type="expression" dxfId="85" priority="2">
       <formula>"RFBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="3">
+    <cfRule type="expression" dxfId="84" priority="3">
       <formula>"ASBIE"=$G2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="4">
+    <cfRule type="expression" dxfId="83" priority="4">
       <formula>"ABIE"=$G2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23955,14 +25831,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66688DA9-C97B-4A57-8186-455691B62EFC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -28158,109 +30034,109 @@
   <autoFilter ref="J1:X86" xr:uid="{66688DA9-C97B-4A57-8186-455691B62EFC}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J1:U1048576">
-    <cfRule type="expression" dxfId="66" priority="26">
+    <cfRule type="expression" dxfId="82" priority="26">
       <formula>"G"=MID($K1,6,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53">
-    <cfRule type="expression" dxfId="65" priority="11">
+    <cfRule type="expression" dxfId="81" priority="11">
       <formula>"isa"=$O52</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="12">
+    <cfRule type="expression" dxfId="80" priority="12">
       <formula>OR("ASBIE"=MID($J52,1,5),"ASCC"=MID($J52,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="13">
+    <cfRule type="expression" dxfId="79" priority="13">
       <formula>OR("RFBIE"=MID($J52,1,5),"RFCC"=MID($J52,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="14">
+    <cfRule type="expression" dxfId="78" priority="14">
       <formula>OR("ABIE"=MID($J52,1,4),"ACC"=MID($J52,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="15">
+    <cfRule type="expression" dxfId="77" priority="15">
       <formula>OR("PKBIE"=MID($J52,1,5),"PKCC"=MID($J52,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:O56">
-    <cfRule type="expression" dxfId="60" priority="16">
+    <cfRule type="expression" dxfId="76" priority="16">
       <formula>"isa"=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="17">
+    <cfRule type="expression" dxfId="75" priority="17">
       <formula>OR("ASBIE"=MID(#REF!,1,5),"ASCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="18">
+    <cfRule type="expression" dxfId="74" priority="18">
       <formula>OR("RFBIE"=MID(#REF!,1,5),"RFCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="19">
+    <cfRule type="expression" dxfId="73" priority="19">
       <formula>OR("ABIE"=MID(#REF!,1,4),"ACC"=MID(#REF!,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="20">
+    <cfRule type="expression" dxfId="72" priority="20">
       <formula>OR("PKBIE"=MID(#REF!,1,5),"PKCC"=MID(#REF!,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54 P54:Q54 M54">
-    <cfRule type="expression" dxfId="55" priority="123">
+    <cfRule type="expression" dxfId="71" priority="123">
       <formula>"isa"=$M54</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="124">
+    <cfRule type="expression" dxfId="70" priority="124">
       <formula>OR("ASBIE"=MID($J55,1,5),"ASCC"=MID($J55,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="125">
+    <cfRule type="expression" dxfId="69" priority="125">
       <formula>OR("RFBIE"=MID($J55,1,5),"RFCC"=MID($J55,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="126">
+    <cfRule type="expression" dxfId="68" priority="126">
       <formula>OR("ABIE"=MID($J55,1,4),"ACC"=MID($J55,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="127">
+    <cfRule type="expression" dxfId="67" priority="127">
       <formula>OR("PKBIE"=MID($J55,1,5),"PKCC"=MID($J55,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R53:S53">
-    <cfRule type="expression" dxfId="50" priority="6">
+    <cfRule type="expression" dxfId="66" priority="6">
       <formula>"isa"=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="7">
+    <cfRule type="expression" dxfId="65" priority="7">
       <formula>OR("ASBIE"=MID(#REF!,1,5),"ASCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="8">
+    <cfRule type="expression" dxfId="64" priority="8">
       <formula>OR("RFBIE"=MID(#REF!,1,5),"RFCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="9">
+    <cfRule type="expression" dxfId="63" priority="9">
       <formula>OR("ABIE"=MID(#REF!,1,4),"ACC"=MID(#REF!,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="10">
+    <cfRule type="expression" dxfId="62" priority="10">
       <formula>OR("PKBIE"=MID(#REF!,1,5),"PKCC"=MID(#REF!,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S55:S56 P55:Q56 M55:M56">
-    <cfRule type="expression" dxfId="45" priority="136">
+    <cfRule type="expression" dxfId="61" priority="136">
       <formula>"isa"=$M55</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="137">
+    <cfRule type="expression" dxfId="60" priority="137">
       <formula>OR("ASBIE"=MID(#REF!,1,5),"ASCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="138">
+    <cfRule type="expression" dxfId="59" priority="138">
       <formula>OR("RFBIE"=MID(#REF!,1,5),"RFCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="139">
+    <cfRule type="expression" dxfId="58" priority="139">
       <formula>OR("ABIE"=MID(#REF!,1,4),"ACC"=MID(#REF!,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="140">
+    <cfRule type="expression" dxfId="57" priority="140">
       <formula>OR("PKBIE"=MID(#REF!,1,5),"PKCC"=MID(#REF!,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S77">
-    <cfRule type="expression" dxfId="40" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>"isa"=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>OR("ASBIE"=MID(#REF!,1,5),"ASCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="3">
+    <cfRule type="expression" dxfId="54" priority="3">
       <formula>OR("RFBIE"=MID(#REF!,1,5),"RFCC"=MID(#REF!,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="4">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>OR("ABIE"=MID(#REF!,1,4),"ACC"=MID(#REF!,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="5">
+    <cfRule type="expression" dxfId="52" priority="5">
       <formula>OR("PKBIE"=MID(#REF!,1,5),"PKCC"=MID(#REF!,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28269,7 +30145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S90"/>
   <sheetViews>
@@ -32206,109 +34082,109 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q10:S10 H1:S9 H10:O10 E1:F63 H11:S63">
-    <cfRule type="expression" dxfId="35" priority="38">
+    <cfRule type="expression" dxfId="51" priority="38">
       <formula>"PKBIE"=MID($G1,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="39">
+    <cfRule type="expression" dxfId="50" priority="39">
       <formula>"RFBIE"=$G1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="40">
+    <cfRule type="expression" dxfId="49" priority="40">
       <formula>"ASBIE"=$G1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="41">
+    <cfRule type="expression" dxfId="48" priority="41">
       <formula>"ABIE"=$G1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65:F67">
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="47" priority="14">
       <formula>"PKBIE"=MID($G65,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="15">
+    <cfRule type="expression" dxfId="46" priority="15">
       <formula>"RFBIE"=$G65</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="16">
+    <cfRule type="expression" dxfId="45" priority="16">
       <formula>"ASBIE"=$G65</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="17">
+    <cfRule type="expression" dxfId="44" priority="17">
       <formula>"ABIE"=$G65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:F72">
-    <cfRule type="expression" dxfId="27" priority="10">
+    <cfRule type="expression" dxfId="43" priority="10">
       <formula>"PKBIE"=MID($G69,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="11">
+    <cfRule type="expression" dxfId="42" priority="11">
       <formula>"RFBIE"=$G69</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="12">
+    <cfRule type="expression" dxfId="41" priority="12">
       <formula>"ASBIE"=$G69</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="13">
+    <cfRule type="expression" dxfId="40" priority="13">
       <formula>"ABIE"=$G69</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:F78">
-    <cfRule type="expression" dxfId="23" priority="6">
+    <cfRule type="expression" dxfId="39" priority="6">
       <formula>"PKBIE"=MID($G74,1,5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="7">
+    <cfRule type="expression" dxfId="38" priority="7">
       <formula>"RFBIE"=$G74</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="8">
+    <cfRule type="expression" dxfId="37" priority="8">
       <formula>"ASBIE"=$G74</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="36" priority="9">
       <formula>"ABIE"=$G74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73 L73">
-    <cfRule type="expression" dxfId="19" priority="88">
+    <cfRule type="expression" dxfId="35" priority="88">
       <formula>"isa"=$E67</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="89">
+    <cfRule type="expression" dxfId="34" priority="89">
       <formula>OR("ASBIE"=MID($A67,1,5),"ASCC"=MID($A67,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="90">
+    <cfRule type="expression" dxfId="33" priority="90">
       <formula>OR("RFBIE"=MID($A67,1,5),"RFCC"=MID($A67,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="91">
+    <cfRule type="expression" dxfId="32" priority="91">
       <formula>OR("ABIE"=MID($A67,1,4),"ACC"=MID($A67,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="92">
+    <cfRule type="expression" dxfId="31" priority="92">
       <formula>OR("PKBIE"=MID($A67,1,5),"PKCC"=MID($A67,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74:K78">
-    <cfRule type="expression" dxfId="14" priority="93">
+    <cfRule type="expression" dxfId="30" priority="93">
       <formula>"isa"=$E69</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="94">
+    <cfRule type="expression" dxfId="29" priority="94">
       <formula>OR("ASBIE"=MID($A69,1,5),"ASCC"=MID($A69,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="95">
+    <cfRule type="expression" dxfId="28" priority="95">
       <formula>OR("RFBIE"=MID($A69,1,5),"RFCC"=MID($A69,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="96">
+    <cfRule type="expression" dxfId="27" priority="96">
       <formula>OR("ABIE"=MID($A69,1,4),"ACC"=MID($A69,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="97">
+    <cfRule type="expression" dxfId="26" priority="97">
       <formula>OR("PKBIE"=MID($A69,1,5),"PKCC"=MID($A69,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O74:O78 L74:M78 J74:J78 H74:H78">
-    <cfRule type="expression" dxfId="9" priority="98">
+    <cfRule type="expression" dxfId="25" priority="98">
       <formula>"isa"=$E74</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="99">
+    <cfRule type="expression" dxfId="24" priority="99">
       <formula>OR("ASBIE"=MID($A75,1,5),"ASCC"=MID($A75,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="100">
+    <cfRule type="expression" dxfId="23" priority="100">
       <formula>OR("RFBIE"=MID($A75,1,5),"RFCC"=MID($A75,1,4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="101">
+    <cfRule type="expression" dxfId="22" priority="101">
       <formula>OR("ABIE"=MID($A75,1,4),"ACC"=MID($A75,1,3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="102">
+    <cfRule type="expression" dxfId="21" priority="102">
       <formula>OR("PKBIE"=MID($A75,1,5),"PKCC"=MID($A75,1,4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32317,7 +34193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9FD28C-C714-41D6-B590-946E1597CB39}">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
@@ -60730,21 +62606,21 @@
   </autoFilter>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="B25:G25 B450:G1048576 B1:G3 B4:F24 B26:F186 B187:G187 B188:F449">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="cen">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="cen">
       <formula>NOT(ISERROR(SEARCH("cen",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
